--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1712456.531533621</v>
+        <v>-1715146.502553029</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9429133.930365043</v>
+        <v>9429133.930365046</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.056421089299432</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,67 +823,67 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="Y4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>15.26809192273228</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.73205987707309</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>15.30273751513505</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T6" t="n">
+        <v>12.73205987707308</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="U6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,73 +1051,73 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="V7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.602605461619501</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>6.602605461619501</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,67 +1212,67 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>12.73205987707308</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10.75721046822443</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>351.6805749734991</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0868189942014</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>296.2985265632553</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.94169079211076</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>112.9498262904694</v>
       </c>
       <c r="T11" t="n">
-        <v>186.7520825924535</v>
+        <v>204.6406662387442</v>
       </c>
       <c r="U11" t="n">
         <v>251.0083794261618</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.0878018904299</v>
       </c>
       <c r="H12" t="n">
-        <v>90.44998357569352</v>
+        <v>90.44998357569351</v>
       </c>
       <c r="I12" t="n">
-        <v>11.7327517490976</v>
+        <v>11.73275174909756</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>129.7842492607405</v>
+        <v>129.7842492607404</v>
       </c>
       <c r="T12" t="n">
         <v>191.0726131874293</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>117.8674046129827</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>144.1680019016046</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0998634481465</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.57946191532255</v>
+        <v>98.57946191532254</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.26194326440228</v>
+        <v>92.26194326440223</v>
       </c>
       <c r="S13" t="n">
         <v>191.059605309076</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.8653669024019</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2158775795648</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>155.8249755561491</v>
+        <v>410.9369916261508</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7641070302074</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.16547118534112</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>109.535635141017</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9847969351029</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.9963932367178</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.3476294383906</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0326560488304</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.8158979909254</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.55835212497936</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>189.8883636319031</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5782080144148</v>
       </c>
       <c r="U16" t="n">
         <v>286.2122117214203</v>
       </c>
       <c r="V16" t="n">
-        <v>117.1486858480463</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>225.6761141096558</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C19" t="n">
-        <v>119.9619595406484</v>
+        <v>119.9619595406483</v>
       </c>
       <c r="D19" t="n">
         <v>101.3306114602329</v>
       </c>
       <c r="E19" t="n">
-        <v>99.14910108858969</v>
+        <v>99.14910108858967</v>
       </c>
       <c r="F19" t="n">
-        <v>98.13618646495176</v>
+        <v>98.13618646495175</v>
       </c>
       <c r="G19" t="n">
-        <v>118.7477944908509</v>
+        <v>118.7477944908499</v>
       </c>
       <c r="H19" t="n">
         <v>97.53103643294594</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95519264262673</v>
+        <v>41.9551926426267</v>
       </c>
       <c r="S19" t="n">
         <v>142.6035020739237</v>
@@ -2081,22 +2081,22 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C20" t="n">
-        <v>317.9880302130281</v>
+        <v>317.988030213028</v>
       </c>
       <c r="D20" t="n">
-        <v>307.3981800627035</v>
+        <v>307.3981800627034</v>
       </c>
       <c r="E20" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F20" t="n">
-        <v>359.591184183732</v>
+        <v>359.5911841837319</v>
       </c>
       <c r="G20" t="n">
         <v>363.6521300681713</v>
       </c>
       <c r="H20" t="n">
-        <v>247.4792454722279</v>
+        <v>247.4792454722278</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>280.4673969121554</v>
       </c>
       <c r="W20" t="n">
-        <v>301.9561071594335</v>
+        <v>301.9561071594332</v>
       </c>
       <c r="X20" t="n">
-        <v>322.4462391204896</v>
+        <v>322.4462391204895</v>
       </c>
       <c r="Y20" t="n">
         <v>338.9530770980741</v>
@@ -2239,25 +2239,25 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C22" t="n">
-        <v>119.9619595406484</v>
+        <v>119.9619595406483</v>
       </c>
       <c r="D22" t="n">
-        <v>101.3306114602329</v>
+        <v>101.3306114602328</v>
       </c>
       <c r="E22" t="n">
-        <v>99.14910108858969</v>
+        <v>99.14910108858966</v>
       </c>
       <c r="F22" t="n">
-        <v>98.13618646495176</v>
+        <v>98.13618646495173</v>
       </c>
       <c r="G22" t="n">
         <v>118.7477944908509</v>
       </c>
       <c r="H22" t="n">
-        <v>97.53103643294594</v>
+        <v>97.53103643294591</v>
       </c>
       <c r="I22" t="n">
-        <v>49.27349056699989</v>
+        <v>49.27349056699986</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95519264262673</v>
+        <v>41.95519264262667</v>
       </c>
       <c r="S22" t="n">
-        <v>142.6035020739237</v>
+        <v>142.6035020739236</v>
       </c>
       <c r="T22" t="n">
-        <v>172.2933464564353</v>
+        <v>172.2933464564352</v>
       </c>
       <c r="U22" t="n">
-        <v>238.9273501634408</v>
+        <v>238.9273501634407</v>
       </c>
       <c r="V22" t="n">
         <v>204.8527817658485</v>
@@ -2302,7 +2302,7 @@
         <v>239.2381367786115</v>
       </c>
       <c r="X22" t="n">
-        <v>178.4247938310577</v>
+        <v>178.4247938310576</v>
       </c>
       <c r="Y22" t="n">
         <v>171.2997917941153</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.25077358303757</v>
+        <v>62.25077358303754</v>
       </c>
       <c r="T23" t="n">
         <v>156.6999353771234</v>
@@ -2476,25 +2476,25 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C25" t="n">
-        <v>119.9619595406484</v>
+        <v>119.9619595406483</v>
       </c>
       <c r="D25" t="n">
         <v>101.3306114602329</v>
       </c>
       <c r="E25" t="n">
-        <v>99.1491010885897</v>
+        <v>99.14910108858967</v>
       </c>
       <c r="F25" t="n">
-        <v>98.13618646495178</v>
+        <v>98.13618646495175</v>
       </c>
       <c r="G25" t="n">
         <v>118.7477944908509</v>
       </c>
       <c r="H25" t="n">
-        <v>97.53103643294597</v>
+        <v>97.53103643294594</v>
       </c>
       <c r="I25" t="n">
-        <v>49.2734905669999</v>
+        <v>49.27349056699988</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95519264262673</v>
+        <v>41.9551926426267</v>
       </c>
       <c r="S25" t="n">
         <v>142.6035020739237</v>
@@ -2555,22 +2555,22 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C26" t="n">
-        <v>317.9880302130281</v>
+        <v>317.988030213028</v>
       </c>
       <c r="D26" t="n">
-        <v>307.3981800627035</v>
+        <v>307.3981800627034</v>
       </c>
       <c r="E26" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F26" t="n">
-        <v>359.591184183732</v>
+        <v>359.5911841837319</v>
       </c>
       <c r="G26" t="n">
         <v>363.6521300681713</v>
       </c>
       <c r="H26" t="n">
-        <v>247.4792454722279</v>
+        <v>247.4792454722278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.25077358303757</v>
+        <v>62.25077358303749</v>
       </c>
       <c r="T26" t="n">
-        <v>156.6999353771234</v>
+        <v>156.6999353771233</v>
       </c>
       <c r="U26" t="n">
-        <v>203.7115316787383</v>
+        <v>203.7115316787382</v>
       </c>
       <c r="V26" t="n">
-        <v>280.4673969121554</v>
+        <v>280.4673969121553</v>
       </c>
       <c r="W26" t="n">
         <v>301.9561071594335</v>
       </c>
       <c r="X26" t="n">
-        <v>322.4462391204896</v>
+        <v>322.4462391204895</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.9530770980741</v>
+        <v>338.953077098074</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.5471186239578</v>
+        <v>132.5471186239577</v>
       </c>
       <c r="C28" t="n">
-        <v>119.9619595406484</v>
+        <v>119.9619595406483</v>
       </c>
       <c r="D28" t="n">
-        <v>101.3306114602329</v>
+        <v>101.3306114602328</v>
       </c>
       <c r="E28" t="n">
-        <v>99.1491010885897</v>
+        <v>99.14910108858962</v>
       </c>
       <c r="F28" t="n">
-        <v>98.13618646495041</v>
+        <v>98.13618646495169</v>
       </c>
       <c r="G28" t="n">
-        <v>118.7477944908509</v>
+        <v>118.7477944908508</v>
       </c>
       <c r="H28" t="n">
-        <v>97.53103643294597</v>
+        <v>97.53103643294588</v>
       </c>
       <c r="I28" t="n">
-        <v>49.2734905669999</v>
+        <v>49.27349056700201</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95519264262673</v>
+        <v>41.95519264262664</v>
       </c>
       <c r="S28" t="n">
-        <v>142.6035020739237</v>
+        <v>142.6035020739236</v>
       </c>
       <c r="T28" t="n">
-        <v>172.2933464564353</v>
+        <v>172.2933464564352</v>
       </c>
       <c r="U28" t="n">
-        <v>238.9273501634408</v>
+        <v>238.9273501634407</v>
       </c>
       <c r="V28" t="n">
-        <v>204.8527817658485</v>
+        <v>204.8527817658484</v>
       </c>
       <c r="W28" t="n">
-        <v>239.2381367786115</v>
+        <v>239.2381367786114</v>
       </c>
       <c r="X28" t="n">
-        <v>178.4247938310577</v>
+        <v>178.4247938310576</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.2997917941153</v>
+        <v>171.2997917941152</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.25077358303757</v>
+        <v>62.25077358303754</v>
       </c>
       <c r="T29" t="n">
         <v>156.6999353771234</v>
@@ -2950,25 +2950,25 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C31" t="n">
-        <v>119.9619595406484</v>
+        <v>119.9619595406483</v>
       </c>
       <c r="D31" t="n">
         <v>101.3306114602329</v>
       </c>
       <c r="E31" t="n">
-        <v>99.1491010885897</v>
+        <v>99.14910108858967</v>
       </c>
       <c r="F31" t="n">
-        <v>98.13618646495178</v>
+        <v>98.13618646495175</v>
       </c>
       <c r="G31" t="n">
         <v>118.7477944908509</v>
       </c>
       <c r="H31" t="n">
-        <v>97.53103643294597</v>
+        <v>97.53103643294594</v>
       </c>
       <c r="I31" t="n">
-        <v>49.2734905669999</v>
+        <v>49.27349056699897</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95519264262673</v>
+        <v>41.9551926426267</v>
       </c>
       <c r="S31" t="n">
         <v>142.6035020739237</v>
@@ -3010,7 +3010,7 @@
         <v>204.8527817658485</v>
       </c>
       <c r="W31" t="n">
-        <v>239.2381367786114</v>
+        <v>239.2381367786115</v>
       </c>
       <c r="X31" t="n">
         <v>178.4247938310577</v>
@@ -3266,16 +3266,16 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C35" t="n">
-        <v>317.988030213028</v>
+        <v>317.9880302130281</v>
       </c>
       <c r="D35" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E35" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F35" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G35" t="n">
         <v>363.6521300681713</v>
@@ -3329,7 +3329,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X35" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y35" t="n">
         <v>338.9530770980741</v>
@@ -3439,10 +3439,10 @@
         <v>118.7477944908509</v>
       </c>
       <c r="H37" t="n">
-        <v>97.53103643294594</v>
+        <v>97.53103643294519</v>
       </c>
       <c r="I37" t="n">
-        <v>49.27349056699986</v>
+        <v>49.27349056699988</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95519264262669</v>
+        <v>41.9551926426267</v>
       </c>
       <c r="S37" t="n">
-        <v>142.6035020739236</v>
+        <v>142.6035020739237</v>
       </c>
       <c r="T37" t="n">
         <v>172.2933464564353</v>
@@ -3503,16 +3503,16 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C38" t="n">
-        <v>317.988030213028</v>
+        <v>317.9880302130281</v>
       </c>
       <c r="D38" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E38" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F38" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G38" t="n">
         <v>363.6521300681713</v>
@@ -3566,7 +3566,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X38" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y38" t="n">
         <v>338.9530770980741</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.4489801055011</v>
+        <v>335.4489801055012</v>
       </c>
       <c r="C41" t="n">
-        <v>317.988030213028</v>
+        <v>317.9880302130281</v>
       </c>
       <c r="D41" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E41" t="n">
-        <v>334.6455085142823</v>
+        <v>334.6455085142824</v>
       </c>
       <c r="F41" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G41" t="n">
-        <v>363.6521300681713</v>
+        <v>363.6521300681714</v>
       </c>
       <c r="H41" t="n">
         <v>247.4792454722279</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.25077358303754</v>
+        <v>62.25077358303763</v>
       </c>
       <c r="T41" t="n">
-        <v>156.6999353771234</v>
+        <v>156.6999353771235</v>
       </c>
       <c r="U41" t="n">
         <v>203.7115316787383</v>
       </c>
       <c r="V41" t="n">
-        <v>280.4673969121554</v>
+        <v>280.4673969121555</v>
       </c>
       <c r="W41" t="n">
-        <v>301.9561071594335</v>
+        <v>301.9561071594336</v>
       </c>
       <c r="X41" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y41" t="n">
-        <v>338.9530770980741</v>
+        <v>338.9530770980742</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.5471186239578</v>
+        <v>132.5471186239579</v>
       </c>
       <c r="C43" t="n">
-        <v>119.9619595406483</v>
+        <v>119.9619595406484</v>
       </c>
       <c r="D43" t="n">
         <v>101.3306114602329</v>
       </c>
       <c r="E43" t="n">
-        <v>99.14910108858967</v>
+        <v>99.14910108858976</v>
       </c>
       <c r="F43" t="n">
-        <v>98.13618646495175</v>
+        <v>98.13618646495183</v>
       </c>
       <c r="G43" t="n">
-        <v>118.7477944908509</v>
+        <v>118.747794490851</v>
       </c>
       <c r="H43" t="n">
-        <v>97.53103643294594</v>
+        <v>97.53103643294602</v>
       </c>
       <c r="I43" t="n">
-        <v>49.27349056699986</v>
+        <v>49.27349056699996</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95519264262669</v>
+        <v>41.95519264262678</v>
       </c>
       <c r="S43" t="n">
-        <v>142.6035020739236</v>
+        <v>142.6035020739237</v>
       </c>
       <c r="T43" t="n">
-        <v>172.2933464564353</v>
+        <v>172.2933464564354</v>
       </c>
       <c r="U43" t="n">
         <v>238.9273501634408</v>
       </c>
       <c r="V43" t="n">
-        <v>204.8527817658485</v>
+        <v>204.8527817658486</v>
       </c>
       <c r="W43" t="n">
-        <v>239.2381367786115</v>
+        <v>239.2381367786116</v>
       </c>
       <c r="X43" t="n">
         <v>178.4247938310577</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.2997917941153</v>
+        <v>171.2997917941154</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C44" t="n">
-        <v>317.988030213028</v>
+        <v>317.9880302130281</v>
       </c>
       <c r="D44" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E44" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F44" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G44" t="n">
         <v>363.6521300681713</v>
       </c>
       <c r="H44" t="n">
-        <v>247.4792454722278</v>
+        <v>247.4792454722279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.25077358303753</v>
+        <v>62.25077358303754</v>
       </c>
       <c r="T44" t="n">
         <v>156.6999353771234</v>
@@ -4040,7 +4040,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X44" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y44" t="n">
         <v>338.9530770980741</v>
@@ -4135,25 +4135,25 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C46" t="n">
-        <v>119.9619595406483</v>
+        <v>119.9619595406484</v>
       </c>
       <c r="D46" t="n">
-        <v>101.3306114602328</v>
+        <v>101.3306114602329</v>
       </c>
       <c r="E46" t="n">
-        <v>99.14910108858966</v>
+        <v>99.14910108858969</v>
       </c>
       <c r="F46" t="n">
-        <v>98.13618646495173</v>
+        <v>98.13618646495176</v>
       </c>
       <c r="G46" t="n">
         <v>118.7477944908509</v>
       </c>
       <c r="H46" t="n">
-        <v>97.53103643294592</v>
+        <v>97.53103643294594</v>
       </c>
       <c r="I46" t="n">
-        <v>49.27349056699985</v>
+        <v>49.27349056699989</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95519264262668</v>
+        <v>41.95519264262673</v>
       </c>
       <c r="S46" t="n">
-        <v>142.6035020739236</v>
+        <v>142.6035020739237</v>
       </c>
       <c r="T46" t="n">
-        <v>172.2933464564352</v>
+        <v>172.2933464564353</v>
       </c>
       <c r="U46" t="n">
-        <v>238.9273501634407</v>
+        <v>238.9273501634408</v>
       </c>
       <c r="V46" t="n">
         <v>204.8527817658485</v>
@@ -4198,7 +4198,7 @@
         <v>239.2381367786115</v>
       </c>
       <c r="X46" t="n">
-        <v>178.4247938310576</v>
+        <v>178.4247938310577</v>
       </c>
       <c r="Y46" t="n">
         <v>171.2997917941153</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D2" t="n">
         <v>14.44108515774386</v>
@@ -4331,49 +4331,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M2" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N2" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="R2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="S2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="T2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="V2" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="W2" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="R2" t="n">
+      <c r="X2" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="S2" t="n">
+      <c r="Y2" t="n">
         <v>20.55868221764227</v>
-      </c>
-      <c r="T2" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="U2" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="V2" t="n">
-        <v>20.55868221764227</v>
-      </c>
-      <c r="W2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="X2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
         <v>0.5500836593369149</v>
@@ -4416,13 +4416,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M3" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N3" t="n">
-        <v>20.69689768255142</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="O3" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="P3" t="n">
         <v>20.69689768255142</v>
@@ -4443,16 +4443,16 @@
         <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W3" t="n">
-        <v>15.19521781052957</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X3" t="n">
-        <v>15.19521781052957</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.19521781052957</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4495,10 +4495,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O4" t="n">
         <v>27.50418296684575</v>
@@ -4516,22 +4516,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T4" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V4" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W4" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X4" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F5" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
@@ -4571,46 +4571,46 @@
         <v>15.7618196405891</v>
       </c>
       <c r="L5" t="n">
-        <v>30.9115297805728</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M5" t="n">
         <v>30.9115297805728</v>
       </c>
       <c r="N5" t="n">
+        <v>30.9115297805728</v>
+      </c>
+      <c r="O5" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="O5" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S5" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T5" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="C6" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="D6" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="E6" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F6" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G6" t="n">
         <v>1.978351653996518</v>
@@ -4650,19 +4650,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L6" t="n">
-        <v>1.224219001210804</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M6" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N6" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O6" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="P6" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
@@ -4671,25 +4671,25 @@
         <v>45.75363943919166</v>
       </c>
       <c r="S6" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T6" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="U6" t="n">
-        <v>14.83901819649459</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="V6" t="n">
-        <v>14.83901819649459</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="W6" t="n">
-        <v>14.83901819649459</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="X6" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J7" t="n">
         <v>1.224219001210804</v>
@@ -4729,10 +4729,10 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N7" t="n">
         <v>46.0612399205565</v>
@@ -4750,25 +4750,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U7" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="8">
@@ -4805,19 +4805,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
@@ -4826,25 +4826,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>39.08434099311135</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>39.08434099311135</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V8" t="n">
-        <v>39.08434099311135</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W8" t="n">
-        <v>39.08434099311135</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="X8" t="n">
-        <v>39.08434099311135</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="Y8" t="n">
         <v>39.08434099311135</v>
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.89297289669359</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
         <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O9" t="n">
         <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V9" t="n">
-        <v>32.89297289669359</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W9" t="n">
-        <v>32.89297289669359</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X9" t="n">
-        <v>32.89297289669359</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y9" t="n">
-        <v>32.89297289669359</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.46202002507908</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>58.46202002507908</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>43.00470940373054</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N10" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4984,28 +4984,28 @@
         <v>58.46202002507908</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X10" t="n">
-        <v>58.46202002507908</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.46202002507908</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1942.75341021483</v>
+        <v>1137.431690623536</v>
       </c>
       <c r="C11" t="n">
-        <v>1573.790893274418</v>
+        <v>768.4691736831242</v>
       </c>
       <c r="D11" t="n">
-        <v>1573.790893274418</v>
+        <v>410.2034750763736</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.002640676174</v>
+        <v>410.2034750763736</v>
       </c>
       <c r="F11" t="n">
-        <v>777.016735886566</v>
+        <v>410.2034750763736</v>
       </c>
       <c r="G11" t="n">
-        <v>361.7775247813122</v>
+        <v>410.2034750763736</v>
       </c>
       <c r="H11" t="n">
-        <v>62.48608380832707</v>
+        <v>110.9120341033885</v>
       </c>
       <c r="I11" t="n">
-        <v>62.48608380832707</v>
+        <v>62.48608380832712</v>
       </c>
       <c r="J11" t="n">
-        <v>237.4932447473411</v>
+        <v>237.4932447473416</v>
       </c>
       <c r="K11" t="n">
-        <v>550.5221313144543</v>
+        <v>550.5221313144544</v>
       </c>
       <c r="L11" t="n">
-        <v>975.7639068664835</v>
+        <v>975.7639068664839</v>
       </c>
       <c r="M11" t="n">
-        <v>1480.596754930487</v>
+        <v>1480.596754930488</v>
       </c>
       <c r="N11" t="n">
-        <v>1998.212134641493</v>
+        <v>1998.212134641494</v>
       </c>
       <c r="O11" t="n">
-        <v>2473.646398611045</v>
+        <v>2473.646398611047</v>
       </c>
       <c r="P11" t="n">
-        <v>2844.917542489656</v>
+        <v>2844.917542489658</v>
       </c>
       <c r="Q11" t="n">
-        <v>3075.553962979651</v>
+        <v>3075.553962979654</v>
       </c>
       <c r="R11" t="n">
-        <v>3124.304190416354</v>
+        <v>3124.304190416356</v>
       </c>
       <c r="S11" t="n">
-        <v>3124.304190416354</v>
+        <v>3010.213456789619</v>
       </c>
       <c r="T11" t="n">
-        <v>2935.665723151249</v>
+        <v>2803.50571311412</v>
       </c>
       <c r="U11" t="n">
-        <v>2682.121905549066</v>
+        <v>2549.961895511936</v>
       </c>
       <c r="V11" t="n">
-        <v>2682.121905549066</v>
+        <v>2218.899008168366</v>
       </c>
       <c r="W11" t="n">
-        <v>2329.353250278951</v>
+        <v>1866.130352898251</v>
       </c>
       <c r="X11" t="n">
-        <v>2329.353250278951</v>
+        <v>1492.664594637172</v>
       </c>
       <c r="Y11" t="n">
-        <v>2329.353250278951</v>
+        <v>1492.664594637172</v>
       </c>
     </row>
     <row r="12">
@@ -5109,25 +5109,25 @@
         <v>302.1532931166312</v>
       </c>
       <c r="G12" t="n">
-        <v>165.7009679747828</v>
+        <v>165.7009679747827</v>
       </c>
       <c r="H12" t="n">
         <v>74.33734820135496</v>
       </c>
       <c r="I12" t="n">
-        <v>62.48608380832707</v>
+        <v>62.48608380832712</v>
       </c>
       <c r="J12" t="n">
-        <v>147.9013029875335</v>
+        <v>147.9013029875337</v>
       </c>
       <c r="K12" t="n">
-        <v>372.0443420256674</v>
+        <v>372.0443420256677</v>
       </c>
       <c r="L12" t="n">
-        <v>719.7548601366525</v>
+        <v>719.754860136653</v>
       </c>
       <c r="M12" t="n">
-        <v>1275.487837017071</v>
+        <v>1144.873502498832</v>
       </c>
       <c r="N12" t="n">
         <v>1726.266749778324</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>792.3124585661761</v>
+        <v>162.0612978642085</v>
       </c>
       <c r="C13" t="n">
-        <v>623.3762756382692</v>
+        <v>162.0612978642085</v>
       </c>
       <c r="D13" t="n">
-        <v>623.3762756382692</v>
+        <v>162.0612978642085</v>
       </c>
       <c r="E13" t="n">
-        <v>475.4631820558761</v>
+        <v>162.0612978642085</v>
       </c>
       <c r="F13" t="n">
-        <v>329.838937710821</v>
+        <v>162.0612978642085</v>
       </c>
       <c r="G13" t="n">
         <v>162.0612978642085</v>
@@ -5194,55 +5194,55 @@
         <v>162.0612978642085</v>
       </c>
       <c r="I13" t="n">
-        <v>62.48608380832707</v>
+        <v>62.48608380832712</v>
       </c>
       <c r="J13" t="n">
-        <v>102.4253714033064</v>
+        <v>102.4253714033065</v>
       </c>
       <c r="K13" t="n">
-        <v>297.8947264997975</v>
+        <v>297.8947264997977</v>
       </c>
       <c r="L13" t="n">
-        <v>603.5546378827295</v>
+        <v>603.5546378827298</v>
       </c>
       <c r="M13" t="n">
-        <v>936.2192808485789</v>
+        <v>936.2192808485795</v>
       </c>
       <c r="N13" t="n">
         <v>1266.408518568591</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.375426765304</v>
+        <v>1555.375426765305</v>
       </c>
       <c r="P13" t="n">
-        <v>1779.115855074696</v>
+        <v>1779.115855074697</v>
       </c>
       <c r="Q13" t="n">
-        <v>1850.587050104494</v>
+        <v>1850.587050104495</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.393168019239</v>
+        <v>1757.39316801924</v>
       </c>
       <c r="S13" t="n">
-        <v>1564.403667707041</v>
+        <v>1564.403667707042</v>
       </c>
       <c r="T13" t="n">
-        <v>1564.403667707041</v>
+        <v>1342.317438512697</v>
       </c>
       <c r="U13" t="n">
-        <v>1564.403667707041</v>
+        <v>1053.210491462631</v>
       </c>
       <c r="V13" t="n">
-        <v>1309.719179501154</v>
+        <v>798.5260032567443</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.302009464193</v>
+        <v>509.1088332197841</v>
       </c>
       <c r="X13" t="n">
-        <v>792.3124585661761</v>
+        <v>281.1192823217668</v>
       </c>
       <c r="Y13" t="n">
-        <v>792.3124585661761</v>
+        <v>281.1192823217668</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1649.226597320426</v>
+        <v>2062.75127001421</v>
       </c>
       <c r="C14" t="n">
-        <v>1280.264080380014</v>
+        <v>1693.788753073798</v>
       </c>
       <c r="D14" t="n">
-        <v>921.9983817732638</v>
+        <v>1335.523054467048</v>
       </c>
       <c r="E14" t="n">
-        <v>536.2101291750189</v>
+        <v>949.734801868804</v>
       </c>
       <c r="F14" t="n">
-        <v>536.2101291750189</v>
+        <v>538.7488970791965</v>
       </c>
       <c r="G14" t="n">
-        <v>378.8111639667875</v>
+        <v>123.6610267497508</v>
       </c>
       <c r="H14" t="n">
-        <v>81.06964171405274</v>
+        <v>123.6610267497508</v>
       </c>
       <c r="I14" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J14" t="n">
-        <v>436.0716981467104</v>
+        <v>376.5501702098884</v>
       </c>
       <c r="K14" t="n">
-        <v>767.9686017517994</v>
+        <v>708.4470738149773</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.192014995295</v>
+        <v>1570.580895331757</v>
       </c>
       <c r="M14" t="n">
-        <v>1993.070154151108</v>
+        <v>2101.459034487569</v>
       </c>
       <c r="N14" t="n">
-        <v>2537.1522649933</v>
+        <v>2645.541145329762</v>
       </c>
       <c r="O14" t="n">
-        <v>3037.578312661897</v>
+        <v>3145.967192998359</v>
       </c>
       <c r="P14" t="n">
-        <v>3748.76008681206</v>
+        <v>3538.568246058753</v>
       </c>
       <c r="Q14" t="n">
-        <v>3995.414380791711</v>
+        <v>3995.41438079171</v>
       </c>
       <c r="R14" t="n">
-        <v>4053.482085702637</v>
+        <v>4053.482085702636</v>
       </c>
       <c r="S14" t="n">
-        <v>3942.84003000464</v>
+        <v>3942.840030004639</v>
       </c>
       <c r="T14" t="n">
-        <v>3736.794780575243</v>
+        <v>3942.840030004639</v>
       </c>
       <c r="U14" t="n">
-        <v>3483.263070235124</v>
+        <v>3689.30831966452</v>
       </c>
       <c r="V14" t="n">
-        <v>3152.200182891554</v>
+        <v>3565.724855585338</v>
       </c>
       <c r="W14" t="n">
-        <v>2799.431527621439</v>
+        <v>3212.956200315223</v>
       </c>
       <c r="X14" t="n">
-        <v>2425.965769360359</v>
+        <v>2839.490442054143</v>
       </c>
       <c r="Y14" t="n">
-        <v>2035.826437384548</v>
+        <v>2449.351110078332</v>
       </c>
     </row>
     <row r="15">
@@ -5343,16 +5343,16 @@
         <v>463.6204555534048</v>
       </c>
       <c r="F15" t="n">
-        <v>317.0858975802898</v>
+        <v>317.0858975802897</v>
       </c>
       <c r="G15" t="n">
         <v>180.7145468922148</v>
       </c>
       <c r="H15" t="n">
-        <v>90.13296986970447</v>
+        <v>90.13296986970445</v>
       </c>
       <c r="I15" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J15" t="n">
         <v>173.9829298477792</v>
@@ -5361,13 +5361,13 @@
         <v>410.9413630040397</v>
       </c>
       <c r="L15" t="n">
-        <v>778.5482426890328</v>
+        <v>775.8837600247091</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.775674963594</v>
+        <v>1221.11119229927</v>
       </c>
       <c r="N15" t="n">
-        <v>1695.195597470638</v>
+        <v>1692.531114806314</v>
       </c>
       <c r="O15" t="n">
         <v>2104.23293200836</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.3309931613896</v>
+        <v>250.0058246419596</v>
       </c>
       <c r="C16" t="n">
-        <v>787.3948102334828</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="D16" t="n">
-        <v>787.3948102334828</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="E16" t="n">
-        <v>639.4817166510896</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="F16" t="n">
-        <v>492.5917691531791</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="G16" t="n">
-        <v>324.882015568502</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="H16" t="n">
-        <v>178.6033307291834</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="I16" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J16" t="n">
-        <v>125.7129768093658</v>
+        <v>125.7129768093657</v>
       </c>
       <c r="K16" t="n">
         <v>328.9125269751979</v>
       </c>
       <c r="L16" t="n">
-        <v>644.4644266338737</v>
+        <v>644.4644266338736</v>
       </c>
       <c r="M16" t="n">
-        <v>987.5587842773946</v>
+        <v>987.558784277395</v>
       </c>
       <c r="N16" t="n">
         <v>1327.929741371602</v>
       </c>
       <c r="O16" t="n">
-        <v>1626.301115369419</v>
+        <v>1626.30111536942</v>
       </c>
       <c r="P16" t="n">
-        <v>1858.088688843327</v>
+        <v>1858.088688843328</v>
       </c>
       <c r="Q16" t="n">
-        <v>1935.131310069033</v>
+        <v>1935.131310069034</v>
       </c>
       <c r="R16" t="n">
         <v>1844.989841179532</v>
@@ -5464,22 +5464,22 @@
         <v>1653.183413268519</v>
       </c>
       <c r="T16" t="n">
-        <v>1653.183413268519</v>
+        <v>1431.387243556989</v>
       </c>
       <c r="U16" t="n">
-        <v>1364.080169105468</v>
+        <v>1142.283999393938</v>
       </c>
       <c r="V16" t="n">
-        <v>1245.74816319835</v>
+        <v>887.5995111880509</v>
       </c>
       <c r="W16" t="n">
-        <v>956.3309931613896</v>
+        <v>659.6438403702167</v>
       </c>
       <c r="X16" t="n">
-        <v>956.3309931613896</v>
+        <v>431.6542894721994</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.3309931613896</v>
+        <v>431.6542894721994</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1710.126458179828</v>
       </c>
       <c r="D17" t="n">
-        <v>1399.623245995278</v>
+        <v>1399.623245995279</v>
       </c>
       <c r="E17" t="n">
         <v>1061.597479819236</v>
       </c>
       <c r="F17" t="n">
-        <v>698.3740614518297</v>
+        <v>698.3740614518299</v>
       </c>
       <c r="G17" t="n">
-        <v>331.048677544586</v>
+        <v>331.0486775445859</v>
       </c>
       <c r="H17" t="n">
         <v>81.06964171405274</v>
@@ -5513,34 +5513,34 @@
         <v>81.06964171405274</v>
       </c>
       <c r="J17" t="n">
-        <v>268.6660491263574</v>
+        <v>436.0716981467104</v>
       </c>
       <c r="K17" t="n">
-        <v>600.5629527314463</v>
+        <v>767.9686017517994</v>
       </c>
       <c r="L17" t="n">
-        <v>1049.21217184328</v>
+        <v>1216.617820863633</v>
       </c>
       <c r="M17" t="n">
-        <v>2025.108709156996</v>
+        <v>2192.51435817735</v>
       </c>
       <c r="N17" t="n">
-        <v>2855.732986083069</v>
+        <v>2736.596469019542</v>
       </c>
       <c r="O17" t="n">
         <v>3356.159033751665</v>
       </c>
       <c r="P17" t="n">
-        <v>3748.76008681206</v>
+        <v>3748.760086812059</v>
       </c>
       <c r="Q17" t="n">
-        <v>3995.414380791711</v>
+        <v>3995.41438079171</v>
       </c>
       <c r="R17" t="n">
         <v>4053.482085702637</v>
       </c>
       <c r="S17" t="n">
-        <v>3990.602516426842</v>
+        <v>3990.602516426841</v>
       </c>
       <c r="T17" t="n">
         <v>3832.319753419646</v>
@@ -5604,13 +5604,13 @@
         <v>1221.11119229927</v>
       </c>
       <c r="N18" t="n">
-        <v>1692.531114806314</v>
+        <v>1695.195597470638</v>
       </c>
       <c r="O18" t="n">
-        <v>2101.568449344036</v>
+        <v>2104.23293200836</v>
       </c>
       <c r="P18" t="n">
-        <v>2410.523905435694</v>
+        <v>2413.188388100018</v>
       </c>
       <c r="Q18" t="n">
         <v>2569.797732134857</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>772.1102276183148</v>
+        <v>772.1102276183137</v>
       </c>
       <c r="C19" t="n">
-        <v>650.9365311126094</v>
+        <v>650.9365311126083</v>
       </c>
       <c r="D19" t="n">
-        <v>548.5823781224751</v>
+        <v>548.5823781224741</v>
       </c>
       <c r="E19" t="n">
-        <v>448.4317709622835</v>
+        <v>448.4317709622825</v>
       </c>
       <c r="F19" t="n">
-        <v>349.3043098865746</v>
+        <v>349.3043098865737</v>
       </c>
       <c r="G19" t="n">
         <v>229.357042724099</v>
@@ -5677,13 +5677,13 @@
         <v>422.5365528599973</v>
       </c>
       <c r="L19" t="n">
-        <v>784.9004654610726</v>
+        <v>784.9004654610724</v>
       </c>
       <c r="M19" t="n">
         <v>1174.806836046994</v>
       </c>
       <c r="N19" t="n">
-        <v>1561.989806083601</v>
+        <v>1561.9898060836</v>
       </c>
       <c r="O19" t="n">
         <v>1907.173193023818</v>
@@ -5704,7 +5704,7 @@
         <v>1949.170806362791</v>
       </c>
       <c r="U19" t="n">
-        <v>1707.830048621941</v>
+        <v>1707.830048621942</v>
       </c>
       <c r="V19" t="n">
         <v>1500.908046838256</v>
@@ -5713,10 +5713,10 @@
         <v>1259.253363223497</v>
       </c>
       <c r="X19" t="n">
-        <v>1079.026298747682</v>
+        <v>1079.026298747681</v>
       </c>
       <c r="Y19" t="n">
-        <v>905.996206026353</v>
+        <v>905.996206026352</v>
       </c>
     </row>
     <row r="20">
@@ -5732,61 +5732,61 @@
         <v>1710.126458179828</v>
       </c>
       <c r="D20" t="n">
-        <v>1399.623245995279</v>
+        <v>1399.623245995278</v>
       </c>
       <c r="E20" t="n">
         <v>1061.597479819236</v>
       </c>
       <c r="F20" t="n">
-        <v>698.3740614518301</v>
+        <v>698.3740614518297</v>
       </c>
       <c r="G20" t="n">
-        <v>331.048677544586</v>
+        <v>331.0486775445859</v>
       </c>
       <c r="H20" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="I20" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J20" t="n">
-        <v>268.6660491263574</v>
+        <v>436.0716981467104</v>
       </c>
       <c r="K20" t="n">
-        <v>600.5629527314463</v>
+        <v>767.9686017517994</v>
       </c>
       <c r="L20" t="n">
-        <v>1049.21217184328</v>
+        <v>1630.102423268579</v>
       </c>
       <c r="M20" t="n">
-        <v>1580.090310999092</v>
+        <v>2160.980562424391</v>
       </c>
       <c r="N20" t="n">
-        <v>2124.172421841285</v>
+        <v>2855.732986083068</v>
       </c>
       <c r="O20" t="n">
-        <v>2762.327216234339</v>
+        <v>3356.159033751665</v>
       </c>
       <c r="P20" t="n">
-        <v>3473.508990384501</v>
+        <v>3748.760086812059</v>
       </c>
       <c r="Q20" t="n">
-        <v>3930.355125117458</v>
+        <v>3995.41438079171</v>
       </c>
       <c r="R20" t="n">
-        <v>4053.482085702637</v>
+        <v>4053.482085702636</v>
       </c>
       <c r="S20" t="n">
-        <v>3990.602516426842</v>
+        <v>3990.602516426841</v>
       </c>
       <c r="T20" t="n">
         <v>3832.319753419646</v>
       </c>
       <c r="U20" t="n">
-        <v>3626.550529501729</v>
+        <v>3626.550529501727</v>
       </c>
       <c r="V20" t="n">
-        <v>3343.250128580359</v>
+        <v>3343.250128580358</v>
       </c>
       <c r="W20" t="n">
         <v>3038.243959732446</v>
@@ -5817,16 +5817,16 @@
         <v>463.6204555534048</v>
       </c>
       <c r="F21" t="n">
-        <v>317.0858975802898</v>
+        <v>317.0858975802897</v>
       </c>
       <c r="G21" t="n">
         <v>180.7145468922148</v>
       </c>
       <c r="H21" t="n">
-        <v>90.13296986970447</v>
+        <v>90.13296986970445</v>
       </c>
       <c r="I21" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J21" t="n">
         <v>173.9829298477792</v>
@@ -5838,16 +5838,16 @@
         <v>775.8837600247091</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.775674963594</v>
+        <v>1221.11119229927</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.195597470638</v>
+        <v>1692.531114806314</v>
       </c>
       <c r="O21" t="n">
-        <v>2104.23293200836</v>
+        <v>2101.568449344036</v>
       </c>
       <c r="P21" t="n">
-        <v>2413.188388100018</v>
+        <v>2410.523905435694</v>
       </c>
       <c r="Q21" t="n">
         <v>2569.797732134857</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>772.1102276183148</v>
+        <v>772.1102276183145</v>
       </c>
       <c r="C22" t="n">
-        <v>650.9365311126094</v>
+        <v>650.9365311126091</v>
       </c>
       <c r="D22" t="n">
-        <v>548.5823781224751</v>
+        <v>548.5823781224749</v>
       </c>
       <c r="E22" t="n">
-        <v>448.4317709622835</v>
+        <v>448.4317709622833</v>
       </c>
       <c r="F22" t="n">
-        <v>349.3043098865747</v>
+        <v>349.3043098865745</v>
       </c>
       <c r="G22" t="n">
-        <v>229.357042724099</v>
+        <v>229.3570427240988</v>
       </c>
       <c r="H22" t="n">
         <v>130.8408443069819</v>
       </c>
       <c r="I22" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J22" t="n">
         <v>172.5249897517655</v>
       </c>
       <c r="K22" t="n">
-        <v>422.5365528599973</v>
+        <v>422.5365528599972</v>
       </c>
       <c r="L22" t="n">
         <v>784.9004654610726</v>
@@ -5920,7 +5920,7 @@
         <v>1174.806836046994</v>
       </c>
       <c r="N22" t="n">
-        <v>1561.989806083601</v>
+        <v>1561.9898060836</v>
       </c>
       <c r="O22" t="n">
         <v>1907.173193023818</v>
@@ -5929,13 +5929,13 @@
         <v>2185.772779440126</v>
       </c>
       <c r="Q22" t="n">
-        <v>2309.627413608232</v>
+        <v>2309.627413608231</v>
       </c>
       <c r="R22" t="n">
-        <v>2267.248431140932</v>
+        <v>2267.248431140931</v>
       </c>
       <c r="S22" t="n">
-        <v>2123.20448965212</v>
+        <v>2123.204489652119</v>
       </c>
       <c r="T22" t="n">
         <v>1949.170806362791</v>
@@ -5944,16 +5944,16 @@
         <v>1707.830048621942</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.908046838257</v>
+        <v>1500.908046838256</v>
       </c>
       <c r="W22" t="n">
-        <v>1259.253363223498</v>
+        <v>1259.253363223497</v>
       </c>
       <c r="X22" t="n">
-        <v>1079.026298747682</v>
+        <v>1079.026298747681</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.996206026353</v>
+        <v>905.9962060263526</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>698.3740614518301</v>
       </c>
       <c r="G23" t="n">
-        <v>331.048677544586</v>
+        <v>331.0486775445859</v>
       </c>
       <c r="H23" t="n">
         <v>81.06964171405274</v>
@@ -5993,28 +5993,28 @@
         <v>600.5629527314463</v>
       </c>
       <c r="L23" t="n">
-        <v>1335.75433792716</v>
+        <v>1049.21217184328</v>
       </c>
       <c r="M23" t="n">
-        <v>2311.650875240876</v>
+        <v>1580.090310999092</v>
       </c>
       <c r="N23" t="n">
-        <v>2855.732986083069</v>
+        <v>2472.093009319047</v>
       </c>
       <c r="O23" t="n">
-        <v>3356.159033751665</v>
+        <v>2972.519056987644</v>
       </c>
       <c r="P23" t="n">
-        <v>3748.76008681206</v>
+        <v>3683.700831137807</v>
       </c>
       <c r="Q23" t="n">
-        <v>3995.414380791711</v>
+        <v>3930.355125117458</v>
       </c>
       <c r="R23" t="n">
         <v>4053.482085702637</v>
       </c>
       <c r="S23" t="n">
-        <v>3990.602516426842</v>
+        <v>3990.602516426841</v>
       </c>
       <c r="T23" t="n">
         <v>3832.319753419646</v>
@@ -6066,16 +6066,16 @@
         <v>81.06964171405274</v>
       </c>
       <c r="J24" t="n">
-        <v>176.6474125121028</v>
+        <v>173.9829298477792</v>
       </c>
       <c r="K24" t="n">
-        <v>413.6058456683633</v>
+        <v>410.9413630040397</v>
       </c>
       <c r="L24" t="n">
-        <v>778.5482426890328</v>
+        <v>775.8837600247091</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.775674963594</v>
+        <v>1221.11119229927</v>
       </c>
       <c r="N24" t="n">
         <v>1695.195597470638</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>772.1102276183145</v>
+        <v>772.1102276183146</v>
       </c>
       <c r="C25" t="n">
-        <v>650.9365311126091</v>
+        <v>650.9365311126093</v>
       </c>
       <c r="D25" t="n">
-        <v>548.5823781224749</v>
+        <v>548.582378122475</v>
       </c>
       <c r="E25" t="n">
-        <v>448.4317709622833</v>
+        <v>448.4317709622835</v>
       </c>
       <c r="F25" t="n">
-        <v>349.3043098865744</v>
+        <v>349.3043098865746</v>
       </c>
       <c r="G25" t="n">
-        <v>229.3570427240987</v>
+        <v>229.357042724099</v>
       </c>
       <c r="H25" t="n">
-        <v>130.8408443069816</v>
+        <v>130.8408443069819</v>
       </c>
       <c r="I25" t="n">
         <v>81.06964171405274</v>
@@ -6148,37 +6148,37 @@
         <v>172.5249897517655</v>
       </c>
       <c r="K25" t="n">
-        <v>422.5365528599973</v>
+        <v>422.5365528599974</v>
       </c>
       <c r="L25" t="n">
-        <v>784.9004654610724</v>
+        <v>784.9004654610727</v>
       </c>
       <c r="M25" t="n">
         <v>1174.806836046994</v>
       </c>
       <c r="N25" t="n">
-        <v>1561.9898060836</v>
+        <v>1561.989806083601</v>
       </c>
       <c r="O25" t="n">
-        <v>1907.173193023817</v>
+        <v>1907.173193023818</v>
       </c>
       <c r="P25" t="n">
-        <v>2185.772779440125</v>
+        <v>2185.772779440126</v>
       </c>
       <c r="Q25" t="n">
-        <v>2309.62741360823</v>
+        <v>2309.627413608232</v>
       </c>
       <c r="R25" t="n">
-        <v>2267.24843114093</v>
+        <v>2267.248431140932</v>
       </c>
       <c r="S25" t="n">
-        <v>2123.204489652119</v>
+        <v>2123.20448965212</v>
       </c>
       <c r="T25" t="n">
-        <v>1949.17080636279</v>
+        <v>1949.170806362791</v>
       </c>
       <c r="U25" t="n">
-        <v>1707.830048621941</v>
+        <v>1707.830048621942</v>
       </c>
       <c r="V25" t="n">
         <v>1500.908046838256</v>
@@ -6190,7 +6190,7 @@
         <v>1079.026298747681</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.9962060263528</v>
+        <v>905.9962060263529</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2031.326488698038</v>
+        <v>2031.326488698036</v>
       </c>
       <c r="C26" t="n">
-        <v>1710.126458179828</v>
+        <v>1710.126458179826</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.623245995278</v>
+        <v>1399.623245995277</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.597479819236</v>
+        <v>1061.597479819235</v>
       </c>
       <c r="F26" t="n">
-        <v>698.3740614518301</v>
+        <v>698.3740614518288</v>
       </c>
       <c r="G26" t="n">
-        <v>331.048677544586</v>
+        <v>331.0486775445859</v>
       </c>
       <c r="H26" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="I26" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J26" t="n">
         <v>268.6660491263574</v>
@@ -6233,43 +6233,43 @@
         <v>1049.21217184328</v>
       </c>
       <c r="M26" t="n">
-        <v>2025.108709156996</v>
+        <v>1580.090310999092</v>
       </c>
       <c r="N26" t="n">
-        <v>2569.190819999189</v>
+        <v>2160.160085543182</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.907937324107</v>
+        <v>3037.578312661896</v>
       </c>
       <c r="P26" t="n">
-        <v>3473.508990384501</v>
+        <v>3748.760086812059</v>
       </c>
       <c r="Q26" t="n">
-        <v>3930.355125117458</v>
+        <v>3995.41438079171</v>
       </c>
       <c r="R26" t="n">
-        <v>4053.482085702637</v>
+        <v>4053.482085702636</v>
       </c>
       <c r="S26" t="n">
-        <v>3990.602516426842</v>
+        <v>3990.602516426839</v>
       </c>
       <c r="T26" t="n">
-        <v>3832.319753419647</v>
+        <v>3832.319753419644</v>
       </c>
       <c r="U26" t="n">
-        <v>3626.550529501728</v>
+        <v>3626.550529501726</v>
       </c>
       <c r="V26" t="n">
-        <v>3343.250128580359</v>
+        <v>3343.250128580357</v>
       </c>
       <c r="W26" t="n">
-        <v>3038.243959732446</v>
+        <v>3038.243959732445</v>
       </c>
       <c r="X26" t="n">
-        <v>2712.540687893568</v>
+        <v>2712.540687893566</v>
       </c>
       <c r="Y26" t="n">
-        <v>2370.163842339958</v>
+        <v>2370.163842339956</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>463.6204555534048</v>
       </c>
       <c r="F27" t="n">
-        <v>317.0858975802898</v>
+        <v>317.0858975802897</v>
       </c>
       <c r="G27" t="n">
         <v>180.7145468922148</v>
       </c>
       <c r="H27" t="n">
-        <v>90.13296986970447</v>
+        <v>90.13296986970445</v>
       </c>
       <c r="I27" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J27" t="n">
         <v>173.9829298477792</v>
       </c>
       <c r="K27" t="n">
-        <v>413.6058456683633</v>
+        <v>410.9413630040397</v>
       </c>
       <c r="L27" t="n">
-        <v>778.5482426890328</v>
+        <v>775.8837600247091</v>
       </c>
       <c r="M27" t="n">
-        <v>1223.775674963594</v>
+        <v>1221.11119229927</v>
       </c>
       <c r="N27" t="n">
-        <v>1695.195597470638</v>
+        <v>1692.531114806314</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.23293200836</v>
+        <v>2101.568449344036</v>
       </c>
       <c r="P27" t="n">
-        <v>2413.188388100018</v>
+        <v>2410.523905435694</v>
       </c>
       <c r="Q27" t="n">
-        <v>2569.797732134857</v>
+        <v>2567.133249470533</v>
       </c>
       <c r="R27" t="n">
         <v>2569.797732134857</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.1102276183135</v>
+        <v>772.1102276183165</v>
       </c>
       <c r="C28" t="n">
-        <v>650.9365311126081</v>
+        <v>650.9365311126111</v>
       </c>
       <c r="D28" t="n">
-        <v>548.5823781224739</v>
+        <v>548.5823781224769</v>
       </c>
       <c r="E28" t="n">
-        <v>448.4317709622822</v>
+        <v>448.4317709622854</v>
       </c>
       <c r="F28" t="n">
-        <v>349.3043098865747</v>
+        <v>349.3043098865767</v>
       </c>
       <c r="G28" t="n">
-        <v>229.357042724099</v>
+        <v>229.3570427241011</v>
       </c>
       <c r="H28" t="n">
-        <v>130.8408443069819</v>
+        <v>130.8408443069841</v>
       </c>
       <c r="I28" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J28" t="n">
-        <v>172.5249897517654</v>
+        <v>172.5249897517656</v>
       </c>
       <c r="K28" t="n">
-        <v>422.5365528599972</v>
+        <v>422.5365528599974</v>
       </c>
       <c r="L28" t="n">
         <v>784.9004654610726</v>
@@ -6394,40 +6394,40 @@
         <v>1174.806836046994</v>
       </c>
       <c r="N28" t="n">
-        <v>1561.9898060836</v>
+        <v>1561.989806083601</v>
       </c>
       <c r="O28" t="n">
         <v>1907.173193023818</v>
       </c>
       <c r="P28" t="n">
-        <v>2185.772779440125</v>
+        <v>2185.772779440126</v>
       </c>
       <c r="Q28" t="n">
-        <v>2309.627413608231</v>
+        <v>2309.627413608232</v>
       </c>
       <c r="R28" t="n">
-        <v>2267.248431140931</v>
+        <v>2267.248431140932</v>
       </c>
       <c r="S28" t="n">
-        <v>2123.204489652119</v>
+        <v>2123.20448965212</v>
       </c>
       <c r="T28" t="n">
-        <v>1949.170806362791</v>
+        <v>1949.170806362793</v>
       </c>
       <c r="U28" t="n">
-        <v>1707.830048621942</v>
+        <v>1707.830048621943</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.908046838256</v>
+        <v>1500.908046838258</v>
       </c>
       <c r="W28" t="n">
-        <v>1259.253363223497</v>
+        <v>1259.253363223499</v>
       </c>
       <c r="X28" t="n">
-        <v>1079.02629874768</v>
+        <v>1079.026298747683</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.9962060263517</v>
+        <v>905.9962060263546</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>698.3740614518301</v>
       </c>
       <c r="G29" t="n">
-        <v>331.048677544586</v>
+        <v>331.0486775445859</v>
       </c>
       <c r="H29" t="n">
         <v>81.06964171405274</v>
@@ -6464,16 +6464,16 @@
         <v>268.6660491263574</v>
       </c>
       <c r="K29" t="n">
-        <v>600.5629527314463</v>
+        <v>921.4669111768994</v>
       </c>
       <c r="L29" t="n">
-        <v>1049.21217184328</v>
+        <v>1370.116130288733</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.090310999092</v>
+        <v>2311.650875240876</v>
       </c>
       <c r="N29" t="n">
-        <v>2478.740806632951</v>
+        <v>2855.732986083069</v>
       </c>
       <c r="O29" t="n">
         <v>3356.159033751665</v>
@@ -6488,7 +6488,7 @@
         <v>4053.482085702637</v>
       </c>
       <c r="S29" t="n">
-        <v>3990.602516426842</v>
+        <v>3990.602516426841</v>
       </c>
       <c r="T29" t="n">
         <v>3832.319753419646</v>
@@ -6497,16 +6497,16 @@
         <v>3626.550529501729</v>
       </c>
       <c r="V29" t="n">
-        <v>3343.25012858036</v>
+        <v>3343.250128580359</v>
       </c>
       <c r="W29" t="n">
-        <v>3038.243959732447</v>
+        <v>3038.243959732446</v>
       </c>
       <c r="X29" t="n">
-        <v>2712.540687893569</v>
+        <v>2712.540687893568</v>
       </c>
       <c r="Y29" t="n">
-        <v>2370.163842339959</v>
+        <v>2370.163842339958</v>
       </c>
     </row>
     <row r="30">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>772.1102276183149</v>
+        <v>772.1102276183141</v>
       </c>
       <c r="C31" t="n">
-        <v>650.9365311126095</v>
+        <v>650.9365311126087</v>
       </c>
       <c r="D31" t="n">
-        <v>548.5823781224752</v>
+        <v>548.5823781224744</v>
       </c>
       <c r="E31" t="n">
-        <v>448.4317709622836</v>
+        <v>448.4317709622829</v>
       </c>
       <c r="F31" t="n">
-        <v>349.3043098865747</v>
+        <v>349.3043098865741</v>
       </c>
       <c r="G31" t="n">
-        <v>229.3570427240991</v>
+        <v>229.3570427240984</v>
       </c>
       <c r="H31" t="n">
-        <v>130.8408443069819</v>
+        <v>130.840844306981</v>
       </c>
       <c r="I31" t="n">
         <v>81.06964171405274</v>
       </c>
       <c r="J31" t="n">
-        <v>172.524989751765</v>
+        <v>172.5249897517655</v>
       </c>
       <c r="K31" t="n">
-        <v>422.5365528599968</v>
+        <v>422.536552859997</v>
       </c>
       <c r="L31" t="n">
         <v>784.9004654610724</v>
       </c>
       <c r="M31" t="n">
-        <v>1174.806836046993</v>
+        <v>1174.806836046994</v>
       </c>
       <c r="N31" t="n">
         <v>1561.9898060836</v>
       </c>
       <c r="O31" t="n">
-        <v>1907.173193023817</v>
+        <v>1907.173193023818</v>
       </c>
       <c r="P31" t="n">
         <v>2185.772779440125</v>
@@ -6649,22 +6649,22 @@
         <v>2123.204489652119</v>
       </c>
       <c r="T31" t="n">
-        <v>1949.170806362791</v>
+        <v>1949.17080636279</v>
       </c>
       <c r="U31" t="n">
-        <v>1707.830048621942</v>
+        <v>1707.830048621941</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.908046838257</v>
+        <v>1500.908046838256</v>
       </c>
       <c r="W31" t="n">
-        <v>1259.253363223498</v>
+        <v>1259.253363223497</v>
       </c>
       <c r="X31" t="n">
-        <v>1079.026298747682</v>
+        <v>1079.026298747681</v>
       </c>
       <c r="Y31" t="n">
-        <v>905.9962060263531</v>
+        <v>905.9962060263523</v>
       </c>
     </row>
     <row r="32">
@@ -6707,19 +6707,19 @@
         <v>1049.21217184328</v>
       </c>
       <c r="M32" t="n">
-        <v>1813.618164398758</v>
+        <v>2025.108709156996</v>
       </c>
       <c r="N32" t="n">
-        <v>2790.673730408816</v>
+        <v>2569.190819999189</v>
       </c>
       <c r="O32" t="n">
-        <v>3291.099778077412</v>
+        <v>3356.159033751665</v>
       </c>
       <c r="P32" t="n">
-        <v>3683.700831137807</v>
+        <v>3748.760086812059</v>
       </c>
       <c r="Q32" t="n">
-        <v>3930.355125117458</v>
+        <v>3995.41438079171</v>
       </c>
       <c r="R32" t="n">
         <v>4053.482085702637</v>
@@ -6795,7 +6795,7 @@
         <v>2101.568449344036</v>
       </c>
       <c r="P33" t="n">
-        <v>2410.523905435694</v>
+        <v>2413.188388100018</v>
       </c>
       <c r="Q33" t="n">
         <v>2569.797732134857</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.1102276183143</v>
+        <v>772.1102276183152</v>
       </c>
       <c r="C34" t="n">
-        <v>650.9365311126089</v>
+        <v>650.9365311126098</v>
       </c>
       <c r="D34" t="n">
-        <v>548.5823781224747</v>
+        <v>548.5823781224756</v>
       </c>
       <c r="E34" t="n">
-        <v>448.4317709622831</v>
+        <v>448.431770962284</v>
       </c>
       <c r="F34" t="n">
-        <v>349.3043098865742</v>
+        <v>349.3043098865751</v>
       </c>
       <c r="G34" t="n">
-        <v>229.3570427240986</v>
+        <v>229.3570427240995</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8408443069816</v>
+        <v>130.8408443069819</v>
       </c>
       <c r="I34" t="n">
         <v>81.06964171405274</v>
       </c>
       <c r="J34" t="n">
-        <v>172.5249897517654</v>
+        <v>172.5249897517655</v>
       </c>
       <c r="K34" t="n">
-        <v>422.5365528599972</v>
+        <v>422.5365528599973</v>
       </c>
       <c r="L34" t="n">
         <v>784.9004654610726</v>
@@ -6868,16 +6868,16 @@
         <v>1174.806836046994</v>
       </c>
       <c r="N34" t="n">
-        <v>1561.9898060836</v>
+        <v>1561.989806083601</v>
       </c>
       <c r="O34" t="n">
         <v>1907.173193023818</v>
       </c>
       <c r="P34" t="n">
-        <v>2185.772779440126</v>
+        <v>2185.772779440125</v>
       </c>
       <c r="Q34" t="n">
-        <v>2309.627413608231</v>
+        <v>2309.62741360823</v>
       </c>
       <c r="R34" t="n">
         <v>2267.248431140931</v>
@@ -6889,7 +6889,7 @@
         <v>1949.170806362791</v>
       </c>
       <c r="U34" t="n">
-        <v>1707.830048621941</v>
+        <v>1707.830048621942</v>
       </c>
       <c r="V34" t="n">
         <v>1500.908046838256</v>
@@ -6898,10 +6898,10 @@
         <v>1259.253363223497</v>
       </c>
       <c r="X34" t="n">
-        <v>1079.026298747681</v>
+        <v>1079.026298747682</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.9962060263524</v>
+        <v>905.9962060263533</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2031.326488698038</v>
+        <v>2031.326488698039</v>
       </c>
       <c r="C35" t="n">
         <v>1710.126458179828</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.623245995279</v>
+        <v>1399.62324599528</v>
       </c>
       <c r="E35" t="n">
         <v>1061.597479819237</v>
       </c>
       <c r="F35" t="n">
-        <v>698.3740614518306</v>
+        <v>698.374061451831</v>
       </c>
       <c r="G35" t="n">
-        <v>331.0486775445859</v>
+        <v>331.048677544586</v>
       </c>
       <c r="H35" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405276</v>
       </c>
       <c r="I35" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405276</v>
       </c>
       <c r="J35" t="n">
         <v>268.6660491263574</v>
@@ -6941,28 +6941,28 @@
         <v>600.5629527314463</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.192014995295</v>
+        <v>1049.21217184328</v>
       </c>
       <c r="M35" t="n">
-        <v>1993.070154151108</v>
+        <v>1580.090310999092</v>
       </c>
       <c r="N35" t="n">
-        <v>2537.1522649933</v>
+        <v>2557.145877009149</v>
       </c>
       <c r="O35" t="n">
-        <v>3037.578312661897</v>
+        <v>3356.159033751666</v>
       </c>
       <c r="P35" t="n">
-        <v>3748.76008681206</v>
+        <v>3748.760086812061</v>
       </c>
       <c r="Q35" t="n">
-        <v>3995.414380791711</v>
+        <v>3995.414380791712</v>
       </c>
       <c r="R35" t="n">
-        <v>4053.482085702637</v>
+        <v>4053.482085702638</v>
       </c>
       <c r="S35" t="n">
-        <v>3990.602516426842</v>
+        <v>3990.602516426843</v>
       </c>
       <c r="T35" t="n">
         <v>3832.319753419647</v>
@@ -6977,10 +6977,10 @@
         <v>3038.243959732447</v>
       </c>
       <c r="X35" t="n">
-        <v>2712.540687893568</v>
+        <v>2712.540687893569</v>
       </c>
       <c r="Y35" t="n">
-        <v>2370.163842339958</v>
+        <v>2370.163842339959</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>180.7145468922148</v>
       </c>
       <c r="H36" t="n">
-        <v>90.13296986970447</v>
+        <v>90.1329698697045</v>
       </c>
       <c r="I36" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405276</v>
       </c>
       <c r="J36" t="n">
         <v>173.9829298477792</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>772.1102276183148</v>
+        <v>772.110227618314</v>
       </c>
       <c r="C37" t="n">
-        <v>650.9365311126094</v>
+        <v>650.9365311126086</v>
       </c>
       <c r="D37" t="n">
-        <v>548.5823781224751</v>
+        <v>548.5823781224743</v>
       </c>
       <c r="E37" t="n">
-        <v>448.4317709622836</v>
+        <v>448.4317709622828</v>
       </c>
       <c r="F37" t="n">
-        <v>349.3043098865747</v>
+        <v>349.3043098865739</v>
       </c>
       <c r="G37" t="n">
-        <v>229.3570427240991</v>
+        <v>229.3570427240983</v>
       </c>
       <c r="H37" t="n">
         <v>130.8408443069819</v>
       </c>
       <c r="I37" t="n">
-        <v>81.06964171405274</v>
+        <v>81.06964171405276</v>
       </c>
       <c r="J37" t="n">
-        <v>172.5249897517655</v>
+        <v>172.5249897517656</v>
       </c>
       <c r="K37" t="n">
-        <v>422.5365528599974</v>
+        <v>422.5365528599973</v>
       </c>
       <c r="L37" t="n">
-        <v>784.9004654610727</v>
+        <v>784.9004654610726</v>
       </c>
       <c r="M37" t="n">
-        <v>1174.806836046993</v>
+        <v>1174.806836046994</v>
       </c>
       <c r="N37" t="n">
-        <v>1561.9898060836</v>
+        <v>1561.989806083601</v>
       </c>
       <c r="O37" t="n">
-        <v>1907.173193023817</v>
+        <v>1907.173193023818</v>
       </c>
       <c r="P37" t="n">
-        <v>2185.772779440125</v>
+        <v>2185.772779440126</v>
       </c>
       <c r="Q37" t="n">
         <v>2309.627413608231</v>
@@ -7138,7 +7138,7 @@
         <v>1079.026298747681</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.996206026353</v>
+        <v>905.9962060263522</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1710.126458179828</v>
       </c>
       <c r="D38" t="n">
-        <v>1399.623245995278</v>
+        <v>1399.623245995279</v>
       </c>
       <c r="E38" t="n">
         <v>1061.597479819236</v>
       </c>
       <c r="F38" t="n">
-        <v>698.3740614518297</v>
+        <v>698.3740614518301</v>
       </c>
       <c r="G38" t="n">
         <v>331.0486775445859</v>
@@ -7184,13 +7184,13 @@
         <v>1747.495960019445</v>
       </c>
       <c r="N38" t="n">
-        <v>2291.578070861638</v>
+        <v>2724.551526029502</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.907937324107</v>
+        <v>3224.977573698099</v>
       </c>
       <c r="P38" t="n">
-        <v>3473.508990384501</v>
+        <v>3683.700831137807</v>
       </c>
       <c r="Q38" t="n">
         <v>3930.355125117458</v>
@@ -7202,22 +7202,22 @@
         <v>3990.602516426842</v>
       </c>
       <c r="T38" t="n">
-        <v>3832.319753419645</v>
+        <v>3832.319753419647</v>
       </c>
       <c r="U38" t="n">
-        <v>3626.550529501728</v>
+        <v>3626.550529501729</v>
       </c>
       <c r="V38" t="n">
-        <v>3343.250128580359</v>
+        <v>3343.25012858036</v>
       </c>
       <c r="W38" t="n">
-        <v>3038.243959732446</v>
+        <v>3038.243959732447</v>
       </c>
       <c r="X38" t="n">
-        <v>2712.540687893568</v>
+        <v>2712.540687893569</v>
       </c>
       <c r="Y38" t="n">
-        <v>2370.163842339958</v>
+        <v>2370.163842339959</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>410.9413630040397</v>
       </c>
       <c r="L39" t="n">
-        <v>778.5482426890328</v>
+        <v>775.8837600247091</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.775674963594</v>
+        <v>1221.11119229927</v>
       </c>
       <c r="N39" t="n">
-        <v>1695.195597470638</v>
+        <v>1692.531114806314</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.23293200836</v>
+        <v>2101.568449344036</v>
       </c>
       <c r="P39" t="n">
-        <v>2413.188388100018</v>
+        <v>2410.523905435694</v>
       </c>
       <c r="Q39" t="n">
         <v>2569.797732134857</v>
@@ -7336,7 +7336,7 @@
         <v>422.5365528599974</v>
       </c>
       <c r="L40" t="n">
-        <v>784.9004654610728</v>
+        <v>784.9004654610727</v>
       </c>
       <c r="M40" t="n">
         <v>1174.806836046994</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2031.326488698039</v>
+        <v>2031.326488698038</v>
       </c>
       <c r="C41" t="n">
         <v>1710.126458179828</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.623245995279</v>
+        <v>1399.623245995278</v>
       </c>
       <c r="E41" t="n">
-        <v>1061.597479819237</v>
+        <v>1061.597479819236</v>
       </c>
       <c r="F41" t="n">
-        <v>698.3740614518306</v>
+        <v>698.3740614518293</v>
       </c>
       <c r="G41" t="n">
         <v>331.048677544586</v>
       </c>
       <c r="H41" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="I41" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J41" t="n">
         <v>268.6660491263574</v>
       </c>
       <c r="K41" t="n">
-        <v>887.1051188153269</v>
+        <v>600.5629527314463</v>
       </c>
       <c r="L41" t="n">
-        <v>1335.754337927161</v>
+        <v>1049.21217184328</v>
       </c>
       <c r="M41" t="n">
-        <v>2311.650875240877</v>
+        <v>2025.108709156996</v>
       </c>
       <c r="N41" t="n">
-        <v>2855.73298608307</v>
+        <v>2569.190819999189</v>
       </c>
       <c r="O41" t="n">
-        <v>3356.159033751666</v>
+        <v>3356.159033751665</v>
       </c>
       <c r="P41" t="n">
-        <v>3748.760086812061</v>
+        <v>3748.76008681206</v>
       </c>
       <c r="Q41" t="n">
-        <v>3995.414380791712</v>
+        <v>3995.414380791711</v>
       </c>
       <c r="R41" t="n">
-        <v>4053.482085702638</v>
+        <v>4053.482085702637</v>
       </c>
       <c r="S41" t="n">
         <v>3990.602516426842</v>
       </c>
       <c r="T41" t="n">
-        <v>3832.319753419647</v>
+        <v>3832.319753419646</v>
       </c>
       <c r="U41" t="n">
         <v>3626.550529501729</v>
       </c>
       <c r="V41" t="n">
-        <v>3343.25012858036</v>
+        <v>3343.250128580359</v>
       </c>
       <c r="W41" t="n">
-        <v>3038.243959732447</v>
+        <v>3038.243959732446</v>
       </c>
       <c r="X41" t="n">
-        <v>2712.540687893569</v>
+        <v>2712.540687893568</v>
       </c>
       <c r="Y41" t="n">
-        <v>2370.163842339959</v>
+        <v>2370.163842339958</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>180.7145468922148</v>
       </c>
       <c r="H42" t="n">
-        <v>90.1329698697045</v>
+        <v>90.13296986970447</v>
       </c>
       <c r="I42" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J42" t="n">
         <v>173.9829298477792</v>
@@ -7494,13 +7494,13 @@
         <v>410.9413630040397</v>
       </c>
       <c r="L42" t="n">
-        <v>778.5482426890328</v>
+        <v>775.8837600247091</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.775674963594</v>
+        <v>1221.11119229927</v>
       </c>
       <c r="N42" t="n">
-        <v>1695.195597470638</v>
+        <v>1692.531114806314</v>
       </c>
       <c r="O42" t="n">
         <v>2104.23293200836</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>772.1102276183143</v>
+        <v>772.1102276183153</v>
       </c>
       <c r="C43" t="n">
-        <v>650.9365311126089</v>
+        <v>650.9365311126098</v>
       </c>
       <c r="D43" t="n">
-        <v>548.5823781224747</v>
+        <v>548.5823781224756</v>
       </c>
       <c r="E43" t="n">
-        <v>448.4317709622831</v>
+        <v>448.4317709622838</v>
       </c>
       <c r="F43" t="n">
-        <v>349.3043098865743</v>
+        <v>349.3043098865749</v>
       </c>
       <c r="G43" t="n">
-        <v>229.3570427240987</v>
+        <v>229.3570427240992</v>
       </c>
       <c r="H43" t="n">
-        <v>130.8408443069816</v>
+        <v>130.840844306982</v>
       </c>
       <c r="I43" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J43" t="n">
-        <v>172.5249897517656</v>
+        <v>172.5249897517654</v>
       </c>
       <c r="K43" t="n">
-        <v>422.5365528599973</v>
+        <v>422.5365528599972</v>
       </c>
       <c r="L43" t="n">
-        <v>784.9004654610726</v>
+        <v>784.9004654610742</v>
       </c>
       <c r="M43" t="n">
-        <v>1174.806836046993</v>
+        <v>1174.806836046995</v>
       </c>
       <c r="N43" t="n">
-        <v>1561.9898060836</v>
+        <v>1561.989806083602</v>
       </c>
       <c r="O43" t="n">
-        <v>1907.173193023818</v>
+        <v>1907.173193023819</v>
       </c>
       <c r="P43" t="n">
-        <v>2185.772779440126</v>
+        <v>2185.772779440127</v>
       </c>
       <c r="Q43" t="n">
-        <v>2309.627413608231</v>
+        <v>2309.627413608232</v>
       </c>
       <c r="R43" t="n">
-        <v>2267.248431140931</v>
+        <v>2267.248431140933</v>
       </c>
       <c r="S43" t="n">
-        <v>2123.204489652119</v>
+        <v>2123.204489652121</v>
       </c>
       <c r="T43" t="n">
-        <v>1949.170806362791</v>
+        <v>1949.170806362792</v>
       </c>
       <c r="U43" t="n">
-        <v>1707.830048621941</v>
+        <v>1707.830048621943</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.908046838256</v>
+        <v>1500.908046838257</v>
       </c>
       <c r="W43" t="n">
-        <v>1259.253363223497</v>
+        <v>1259.253363223498</v>
       </c>
       <c r="X43" t="n">
-        <v>1079.026298747681</v>
+        <v>1079.026298747682</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.9962060263525</v>
+        <v>905.9962060263535</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2031.326488698039</v>
+        <v>2031.326488698038</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.126458179829</v>
+        <v>1710.126458179828</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.62324599528</v>
+        <v>1399.623245995278</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.597479819237</v>
+        <v>1061.597479819236</v>
       </c>
       <c r="F44" t="n">
-        <v>698.3740614518315</v>
+        <v>698.3740614518301</v>
       </c>
       <c r="G44" t="n">
-        <v>331.0486775445859</v>
+        <v>331.048677544586</v>
       </c>
       <c r="H44" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="I44" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J44" t="n">
         <v>268.6660491263574</v>
@@ -7655,43 +7655,43 @@
         <v>1049.21217184328</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.090310999092</v>
+        <v>1993.070154151108</v>
       </c>
       <c r="N44" t="n">
-        <v>2268.548965879646</v>
+        <v>2537.1522649933</v>
       </c>
       <c r="O44" t="n">
-        <v>3145.967192998361</v>
+        <v>3037.578312661897</v>
       </c>
       <c r="P44" t="n">
-        <v>3538.568246058755</v>
+        <v>3748.76008681206</v>
       </c>
       <c r="Q44" t="n">
-        <v>3995.414380791712</v>
+        <v>3995.414380791711</v>
       </c>
       <c r="R44" t="n">
-        <v>4053.482085702638</v>
+        <v>4053.482085702637</v>
       </c>
       <c r="S44" t="n">
-        <v>3990.602516426842</v>
+        <v>3990.602516426841</v>
       </c>
       <c r="T44" t="n">
-        <v>3832.319753419647</v>
+        <v>3832.319753419646</v>
       </c>
       <c r="U44" t="n">
-        <v>3626.55052950173</v>
+        <v>3626.550529501728</v>
       </c>
       <c r="V44" t="n">
-        <v>3343.250128580361</v>
+        <v>3343.250128580359</v>
       </c>
       <c r="W44" t="n">
-        <v>3038.243959732448</v>
+        <v>3038.243959732446</v>
       </c>
       <c r="X44" t="n">
-        <v>2712.54068789357</v>
+        <v>2712.540687893568</v>
       </c>
       <c r="Y44" t="n">
-        <v>2370.16384233996</v>
+        <v>2370.163842339958</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>180.7145468922148</v>
       </c>
       <c r="H45" t="n">
-        <v>90.1329698697045</v>
+        <v>90.13296986970447</v>
       </c>
       <c r="I45" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J45" t="n">
         <v>173.9829298477792</v>
@@ -7743,10 +7743,10 @@
         <v>2101.568449344036</v>
       </c>
       <c r="P45" t="n">
-        <v>2413.188388100018</v>
+        <v>2410.523905435694</v>
       </c>
       <c r="Q45" t="n">
-        <v>2569.797732134857</v>
+        <v>2567.133249470533</v>
       </c>
       <c r="R45" t="n">
         <v>2569.797732134857</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.1102276183148</v>
+        <v>772.1102276183146</v>
       </c>
       <c r="C46" t="n">
-        <v>650.9365311126094</v>
+        <v>650.9365311126093</v>
       </c>
       <c r="D46" t="n">
-        <v>548.5823781224751</v>
+        <v>548.582378122475</v>
       </c>
       <c r="E46" t="n">
-        <v>448.4317709622836</v>
+        <v>448.4317709622834</v>
       </c>
       <c r="F46" t="n">
-        <v>349.3043098865747</v>
+        <v>349.3043098865746</v>
       </c>
       <c r="G46" t="n">
-        <v>229.3570427240991</v>
+        <v>229.3570427240989</v>
       </c>
       <c r="H46" t="n">
-        <v>130.840844306982</v>
+        <v>130.8408443069818</v>
       </c>
       <c r="I46" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J46" t="n">
-        <v>172.5249897517657</v>
+        <v>172.5249897517655</v>
       </c>
       <c r="K46" t="n">
         <v>422.5365528599975</v>
@@ -7825,13 +7825,13 @@
         <v>2185.772779440126</v>
       </c>
       <c r="Q46" t="n">
-        <v>2309.627413608231</v>
+        <v>2309.627413608232</v>
       </c>
       <c r="R46" t="n">
-        <v>2267.248431140932</v>
+        <v>2267.248431140931</v>
       </c>
       <c r="S46" t="n">
-        <v>2123.20448965212</v>
+        <v>2123.204489652119</v>
       </c>
       <c r="T46" t="n">
         <v>1949.170806362791</v>
@@ -7846,7 +7846,7 @@
         <v>1259.253363223497</v>
       </c>
       <c r="X46" t="n">
-        <v>1079.026298747682</v>
+        <v>1079.026298747681</v>
       </c>
       <c r="Y46" t="n">
         <v>905.9962060263529</v>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M2" t="n">
-        <v>237.2222789689842</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>236.2891093383024</v>
@@ -7994,7 +7994,7 @@
         <v>236.9742571633982</v>
       </c>
       <c r="P2" t="n">
-        <v>237.8312214670128</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,16 +8064,16 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M3" t="n">
-        <v>148.7322596337616</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q3" t="n">
         <v>146.857819827733</v>
@@ -8143,13 +8143,13 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M4" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N4" t="n">
         <v>134.5615902069446</v>
       </c>
       <c r="O4" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8219,19 +8219,19 @@
         <v>234.7742961352617</v>
       </c>
       <c r="L5" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>146.6444495984684</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>148.6588525046114</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,13 +8377,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
         <v>154.2285214627401</v>
       </c>
       <c r="N7" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O7" t="n">
         <v>153.7592759669778</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
         <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
         <v>154.2285214627401</v>
@@ -8623,7 +8623,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.7592759669778</v>
+        <v>153.1409835421239</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>131.9336712305451</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.9336712305437</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.627287290791145</v>
+        <v>5.627287290791088</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>108.9738596803343</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>248.0547415471336</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2.691396630629924</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2.691396630630152</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9173,10 +9173,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>289.4365313978583</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>120.3399162257836</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.691396630630095</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.691396630630152</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0.6500433261371654</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>152.1922351681652</v>
       </c>
       <c r="O20" t="n">
-        <v>139.1199461863204</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2.691396630630038</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2.691396630630152</v>
       </c>
       <c r="R21" t="n">
         <v>0.6500433261371654</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>289.4365313978582</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>351.4349368462244</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>2.691396630629967</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.691396630630095</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>36.35117545646108</v>
       </c>
       <c r="O26" t="n">
-        <v>11.40512086497085</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>2.691396630629953</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6500433261371654</v>
+        <v>3.34143995676718</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>414.8046523195259</v>
       </c>
       <c r="N29" t="n">
-        <v>358.1498836279452</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>235.8867206057234</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>289.4365313978577</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.691396630630038</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.691396630630152</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0.6500433261371654</v>
@@ -10589,19 +10589,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.1513567192073</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>301.6031404787071</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>291.8220391857294</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>66.79010543364996</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>2.691396630629924</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>2.691396630630152</v>
       </c>
       <c r="R39" t="n">
         <v>0.6500433261371654</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>289.4365313978593</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>289.4365313978582</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>2.691396630629924</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>2.691396630630152</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11303,19 +11303,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>417.1513567192075</v>
       </c>
       <c r="N44" t="n">
-        <v>145.8348929680412</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.691396630630038</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.6500433261371654</v>
+        <v>3.34143995676718</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>31.05326668998153</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.0868189942014</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.94169079211085</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.9498262904695</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.8885836462907</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>61.96457556895462</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>1.25304612132669</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0998634481465</v>
       </c>
       <c r="H13" t="n">
         <v>145.4134328684816</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.8653669024019</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2158775795648</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>255.1120160700017</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.7641070302074</v>
       </c>
       <c r="I14" t="n">
-        <v>42.16547118534112</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9847969351029</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>205.4046290317443</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0326560488304</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.8158979909254</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.55835212497936</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5782080144148</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>134.9889574757817</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>60.84688422693517</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>9.805489753489383e-13</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>7.531752999057062e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143564.9259098459</v>
+        <v>143564.9259098458</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26320,31 +26320,31 @@
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>116115.8551888005</v>
+        <v>116115.8551888006</v>
       </c>
       <c r="F2" t="n">
         <v>129138.7535163885</v>
       </c>
       <c r="G2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="H2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="J2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1071179.608263814</v>
+        <v>1071179.608263815</v>
       </c>
       <c r="F3" t="n">
-        <v>96017.94202345978</v>
+        <v>96017.9420234592</v>
       </c>
       <c r="G3" t="n">
         <v>37827.88924638359</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044347</v>
+        <v>1799.076112044369</v>
       </c>
       <c r="K3" t="n">
-        <v>2168.760808342488</v>
+        <v>2168.760808342496</v>
       </c>
       <c r="L3" t="n">
-        <v>37827.88924638362</v>
+        <v>37827.88924638361</v>
       </c>
       <c r="M3" t="n">
-        <v>190833.7719674076</v>
+        <v>190833.7719674078</v>
       </c>
       <c r="N3" t="n">
-        <v>56895.18858969588</v>
+        <v>56895.18858969562</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>9025.940683312836</v>
+        <v>9025.94068331282</v>
       </c>
       <c r="F4" t="n">
-        <v>23748.42730332562</v>
+        <v>23748.42730332561</v>
       </c>
       <c r="G4" t="n">
-        <v>71299.35238317531</v>
+        <v>71299.35238317528</v>
       </c>
       <c r="H4" t="n">
-        <v>71299.35238317531</v>
+        <v>71299.3523831753</v>
       </c>
       <c r="I4" t="n">
         <v>71299.35238317528</v>
       </c>
       <c r="J4" t="n">
-        <v>71299.35238317528</v>
+        <v>71299.35238317533</v>
       </c>
       <c r="K4" t="n">
-        <v>71299.35238317528</v>
+        <v>71299.35238317531</v>
       </c>
       <c r="L4" t="n">
         <v>71299.35238317531</v>
       </c>
       <c r="M4" t="n">
-        <v>71299.35238317531</v>
+        <v>71299.35238317533</v>
       </c>
       <c r="N4" t="n">
-        <v>71299.35238317531</v>
+        <v>71299.3523831753</v>
       </c>
       <c r="O4" t="n">
-        <v>71299.35238317534</v>
+        <v>71299.35238317525</v>
       </c>
       <c r="P4" t="n">
-        <v>71299.35238317534</v>
+        <v>71299.35238317528</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>70351.29585372159</v>
+        <v>70351.29585372165</v>
       </c>
       <c r="F5" t="n">
         <v>85287.27622216934</v>
@@ -26500,16 +26500,16 @@
         <v>89262.46724848711</v>
       </c>
       <c r="M5" t="n">
-        <v>89262.46724848711</v>
+        <v>89262.46724848714</v>
       </c>
       <c r="N5" t="n">
         <v>89262.46724848711</v>
       </c>
       <c r="O5" t="n">
-        <v>89262.46724848714</v>
+        <v>89262.46724848711</v>
       </c>
       <c r="P5" t="n">
-        <v>89262.46724848714</v>
+        <v>89262.46724848711</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296306.9400127165</v>
+        <v>-296308.6169243795</v>
       </c>
       <c r="C6" t="n">
-        <v>-296124.6611194018</v>
+        <v>-296124.6611194017</v>
       </c>
       <c r="D6" t="n">
-        <v>-293402.2440274513</v>
+        <v>-293402.2440274512</v>
       </c>
       <c r="E6" t="n">
-        <v>-1034440.989612048</v>
+        <v>-1034834.796105441</v>
       </c>
       <c r="F6" t="n">
-        <v>-75914.89203256626</v>
+        <v>-76122.65712127797</v>
       </c>
       <c r="G6" t="n">
-        <v>-54707.39915179645</v>
+        <v>-54707.3991517963</v>
       </c>
       <c r="H6" t="n">
-        <v>-16879.50990541282</v>
+        <v>-16879.50990541281</v>
       </c>
       <c r="I6" t="n">
-        <v>-16879.50990541271</v>
+        <v>-16879.50990541279</v>
       </c>
       <c r="J6" t="n">
-        <v>-18678.5860174571</v>
+        <v>-18678.58601745717</v>
       </c>
       <c r="K6" t="n">
-        <v>-19048.27071375522</v>
+        <v>-19048.27071375528</v>
       </c>
       <c r="L6" t="n">
-        <v>-54707.3991517965</v>
+        <v>-54707.39915179643</v>
       </c>
       <c r="M6" t="n">
-        <v>-207713.2818728203</v>
+        <v>-207713.2818728206</v>
       </c>
       <c r="N6" t="n">
-        <v>-73774.69849510866</v>
+        <v>-73774.69849510843</v>
       </c>
       <c r="O6" t="n">
-        <v>-16879.50990541285</v>
+        <v>-16879.50990541273</v>
       </c>
       <c r="P6" t="n">
-        <v>-16879.50990541285</v>
+        <v>-16879.50990541273</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H2" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="I2" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="J2" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="K2" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="L2" t="n">
         <v>47.28486155797951</v>
       </c>
       <c r="M2" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="N2" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="O2" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="P2" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>781.0760476040884</v>
+        <v>781.076047604089</v>
       </c>
       <c r="F4" t="n">
         <v>1013.370521425659</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.28486155797952</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1048.709732082249</v>
       </c>
       <c r="F3" t="n">
-        <v>37.26955780258004</v>
+        <v>37.26955780257958</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>765.7733100889534</v>
+        <v>765.773310088954</v>
       </c>
       <c r="F4" t="n">
-        <v>232.2944738215708</v>
+        <v>232.29447382157</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="K4" t="n">
-        <v>8.426691773423613</v>
+        <v>8.42669177342384</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>765.7733100889535</v>
+        <v>765.7733100889543</v>
       </c>
       <c r="N4" t="n">
-        <v>232.2944738215708</v>
+        <v>232.2944738215698</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>765.7733100889534</v>
+        <v>765.773310088954</v>
       </c>
       <c r="N4" t="n">
-        <v>232.2944738215708</v>
+        <v>232.29447382157</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>348.6266205313835</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>343.1845476281136</v>
+        <v>342.3649229757016</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C3" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>226.7441660601258</v>
       </c>
       <c r="W3" t="n">
-        <v>246.385153397878</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>155.3511267657281</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>221.8891683389821</v>
+        <v>221.0695436865701</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>246.0812222345286</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>393.3973945383805</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27658,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>236.0775609851042</v>
+        <v>236.0429153927014</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>124.6114572861376</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27743,13 +27743,13 @@
         <v>84.85509663750808</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T6" t="n">
-        <v>184.8619911796866</v>
+        <v>187.4326688177485</v>
       </c>
       <c r="U6" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.5292426668022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>78.05644260153773</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27822,22 +27822,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>272.8403781531599</v>
       </c>
       <c r="V7" t="n">
-        <v>238.6589921204971</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27898,13 +27898,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4932441025119</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>342.6383632557935</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9352011409185</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,7 +27944,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>186.6860774914907</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
-        <v>220.0685272723522</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>135.6767521783447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>166.5361809089451</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I17" t="n">
         <v>42.16547118534112</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="J19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="K19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="L19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="M19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="N19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="O19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="P19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="R19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="S19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="C20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="D20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="E20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="F20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="G20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="H20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="I20" t="n">
         <v>42.16547118534112</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="T20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="U20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="V20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="W20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="X20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="C22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="D22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="E22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="F22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="G22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="H22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="I22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="J22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="K22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="L22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="M22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="N22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="O22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="P22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.28486155798048</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="R22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="S22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="T22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="U22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="V22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="W22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="X22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797951</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I23" t="n">
         <v>42.16547118534112</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="J25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="K25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="L25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="M25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="N25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="O25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="P25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155798001</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="R25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="S25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="C26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="D26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="E26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="F26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="G26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="H26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="I26" t="n">
         <v>42.16547118534112</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="T26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="U26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="V26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="W26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="X26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="C28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="D28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="E28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="F28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="G28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="H28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="I28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="J28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="K28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="L28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="M28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="N28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="O28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="P28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="R28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="S28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="T28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="U28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="V28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="W28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="X28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797955</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I29" t="n">
         <v>42.16547118534112</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="J31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="K31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="L31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="M31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="N31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="O31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="P31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="R31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="S31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.28486155797948</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I35" t="n">
         <v>42.16547118534112</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="J37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="K37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="L37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="M37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="N37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="O37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="P37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="R37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="S37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I38" t="n">
         <v>42.16547118534112</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="C40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="D40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="E40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="F40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="G40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="H40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="I40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="J40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="K40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="L40" t="n">
-        <v>47.28486155797964</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="M40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="N40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="O40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="P40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155798002</v>
       </c>
       <c r="R40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="S40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="T40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="U40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="V40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="W40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="X40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797949</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="C41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="D41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="E41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="F41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="G41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="H41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="I41" t="n">
         <v>42.16547118534112</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="T41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="U41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="V41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="W41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="X41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="C43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="D43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="E43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="F43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="G43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="H43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="I43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="J43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="K43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="L43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155798117</v>
       </c>
       <c r="M43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="N43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="O43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="P43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="R43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="S43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="T43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="U43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="V43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="W43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="X43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797941</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I44" t="n">
         <v>42.16547118534112</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="J46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="K46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="L46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="M46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="N46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="O46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="P46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="R46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="S46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.215918520933659</v>
+        <v>4.215918520933661</v>
       </c>
       <c r="H11" t="n">
-        <v>43.17627555251185</v>
+        <v>43.17627555251187</v>
       </c>
       <c r="I11" t="n">
         <v>162.5341987782951</v>
       </c>
       <c r="J11" t="n">
-        <v>357.8208145660935</v>
+        <v>357.8208145660936</v>
       </c>
       <c r="K11" t="n">
-        <v>536.2806455572154</v>
+        <v>536.2806455572156</v>
       </c>
       <c r="L11" t="n">
-        <v>665.303561992239</v>
+        <v>665.3035619922393</v>
       </c>
       <c r="M11" t="n">
-        <v>740.2784029888929</v>
+        <v>740.2784029888933</v>
       </c>
       <c r="N11" t="n">
-        <v>752.2568814864958</v>
+        <v>752.2568814864961</v>
       </c>
       <c r="O11" t="n">
-        <v>710.3348416939617</v>
+        <v>710.3348416939619</v>
       </c>
       <c r="P11" t="n">
-        <v>606.2543532084119</v>
+        <v>606.2543532084121</v>
       </c>
       <c r="Q11" t="n">
-        <v>455.271771177475</v>
+        <v>455.2717711774752</v>
       </c>
       <c r="R11" t="n">
-        <v>264.8281917905992</v>
+        <v>264.8281917905994</v>
       </c>
       <c r="S11" t="n">
-        <v>96.07024329577587</v>
+        <v>96.07024329577591</v>
       </c>
       <c r="T11" t="n">
-        <v>18.4551833253871</v>
+        <v>18.45518332538711</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3372734816746927</v>
+        <v>0.3372734816746928</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.255715272780686</v>
+        <v>2.255715272780687</v>
       </c>
       <c r="H12" t="n">
-        <v>21.78546066080294</v>
+        <v>21.78546066080295</v>
       </c>
       <c r="I12" t="n">
-        <v>77.66388110231748</v>
+        <v>77.66388110231752</v>
       </c>
       <c r="J12" t="n">
-        <v>213.1156258375823</v>
+        <v>213.1156258375824</v>
       </c>
       <c r="K12" t="n">
-        <v>364.2485491138882</v>
+        <v>364.2485491138884</v>
       </c>
       <c r="L12" t="n">
-        <v>489.7771253465257</v>
+        <v>489.7771253465259</v>
       </c>
       <c r="M12" t="n">
-        <v>571.5468039848254</v>
+        <v>571.5468039848256</v>
       </c>
       <c r="N12" t="n">
-        <v>586.6739471957101</v>
+        <v>586.6739471957103</v>
       </c>
       <c r="O12" t="n">
-        <v>536.6920456251485</v>
+        <v>536.6920456251487</v>
       </c>
       <c r="P12" t="n">
-        <v>430.7426822207259</v>
+        <v>430.7426822207261</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.9400758728469</v>
+        <v>287.940075872847</v>
       </c>
       <c r="R12" t="n">
-        <v>140.0522166731728</v>
+        <v>140.0522166731729</v>
       </c>
       <c r="S12" t="n">
-        <v>41.89892184309736</v>
+        <v>41.89892184309738</v>
       </c>
       <c r="T12" t="n">
-        <v>9.092115507392322</v>
+        <v>9.092115507392325</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1484023205776767</v>
+        <v>0.1484023205776768</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.891115910312251</v>
+        <v>1.891115910312252</v>
       </c>
       <c r="H13" t="n">
-        <v>16.81373963895803</v>
+        <v>16.81373963895804</v>
       </c>
       <c r="I13" t="n">
-        <v>56.87101301193572</v>
+        <v>56.87101301193574</v>
       </c>
       <c r="J13" t="n">
         <v>133.7018948590762</v>
       </c>
       <c r="K13" t="n">
-        <v>219.7132848526415</v>
+        <v>219.7132848526416</v>
       </c>
       <c r="L13" t="n">
-        <v>281.1573599749688</v>
+        <v>281.1573599749689</v>
       </c>
       <c r="M13" t="n">
-        <v>296.4410149228559</v>
+        <v>296.441014922856</v>
       </c>
       <c r="N13" t="n">
-        <v>289.3923101662377</v>
+        <v>289.3923101662378</v>
       </c>
       <c r="O13" t="n">
-        <v>267.3006379412263</v>
+        <v>267.3006379412265</v>
       </c>
       <c r="P13" t="n">
-        <v>228.7218733708562</v>
+        <v>228.7218733708563</v>
       </c>
       <c r="Q13" t="n">
-        <v>158.3551695444195</v>
+        <v>158.3551695444196</v>
       </c>
       <c r="R13" t="n">
-        <v>85.03144811276721</v>
+        <v>85.03144811276725</v>
       </c>
       <c r="S13" t="n">
-        <v>32.95699272789622</v>
+        <v>32.95699272789624</v>
       </c>
       <c r="T13" t="n">
-        <v>8.080222525879618</v>
+        <v>8.080222525879622</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1031517769261229</v>
+        <v>0.103151776926123</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>6.876045741711437</v>
@@ -34714,7 +34714,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M3" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q3" t="n">
         <v>6.876045741711437</v>
@@ -34863,13 +34863,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>14.68444509028111</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="P6" t="n">
-        <v>14.68444509028111</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,13 +35097,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M7" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="O7" t="n">
         <v>15.30273751513505</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N8" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="P9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
         <v>15.30273751513505</v>
@@ -35343,7 +35343,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>176.7749100394072</v>
+        <v>176.7749100394074</v>
       </c>
       <c r="K11" t="n">
-        <v>316.1907945122348</v>
+        <v>316.1907945122351</v>
       </c>
       <c r="L11" t="n">
-        <v>429.5371470222518</v>
+        <v>429.5371470222521</v>
       </c>
       <c r="M11" t="n">
-        <v>509.9321697616202</v>
+        <v>509.9321697616206</v>
       </c>
       <c r="N11" t="n">
-        <v>522.8438178899048</v>
+        <v>522.8438178899053</v>
       </c>
       <c r="O11" t="n">
-        <v>480.236630272275</v>
+        <v>480.2366302722752</v>
       </c>
       <c r="P11" t="n">
-        <v>375.0213574531423</v>
+        <v>375.0213574531426</v>
       </c>
       <c r="Q11" t="n">
-        <v>232.9660813030256</v>
+        <v>232.9660813030257</v>
       </c>
       <c r="R11" t="n">
-        <v>49.24265397646712</v>
+        <v>49.24265397646724</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.27799917091559</v>
+        <v>86.27799917091568</v>
       </c>
       <c r="K12" t="n">
-        <v>226.4071101395292</v>
+        <v>226.4071101395294</v>
       </c>
       <c r="L12" t="n">
-        <v>351.2227455666515</v>
+        <v>351.2227455666517</v>
       </c>
       <c r="M12" t="n">
-        <v>561.3464412933522</v>
+        <v>429.4127700628073</v>
       </c>
       <c r="N12" t="n">
-        <v>455.3322351123768</v>
+        <v>587.2659063429207</v>
       </c>
       <c r="O12" t="n">
-        <v>394.095801180704</v>
+        <v>394.0958011807043</v>
       </c>
       <c r="P12" t="n">
-        <v>296.7682748063957</v>
+        <v>296.7682748063958</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.9583017868254</v>
+        <v>147.9583017868255</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.34271474240339</v>
+        <v>40.34271474240344</v>
       </c>
       <c r="K13" t="n">
-        <v>197.4437930267587</v>
+        <v>197.4437930267588</v>
       </c>
       <c r="L13" t="n">
-        <v>308.7473852352849</v>
+        <v>308.747385235285</v>
       </c>
       <c r="M13" t="n">
-        <v>336.0248918846964</v>
+        <v>336.0248918846966</v>
       </c>
       <c r="N13" t="n">
-        <v>333.5244825454663</v>
+        <v>333.5244825454664</v>
       </c>
       <c r="O13" t="n">
-        <v>291.885765855266</v>
+        <v>291.8857658552661</v>
       </c>
       <c r="P13" t="n">
-        <v>226.0004326357497</v>
+        <v>226.0004326357498</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.19312629272515</v>
+        <v>72.19312629272521</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>358.5879357905633</v>
+        <v>298.4651802988239</v>
       </c>
       <c r="K14" t="n">
         <v>335.2493975808979</v>
       </c>
       <c r="L14" t="n">
-        <v>701.2357709530262</v>
+        <v>870.8422439563431</v>
       </c>
       <c r="M14" t="n">
         <v>536.2405446018305</v>
@@ -35662,10 +35662,10 @@
         <v>505.4808562309059</v>
       </c>
       <c r="P14" t="n">
-        <v>718.3654284345075</v>
+        <v>396.5667202630248</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.1457514945969</v>
+        <v>461.4607421545015</v>
       </c>
       <c r="R14" t="n">
         <v>58.6542473847739</v>
@@ -35729,7 +35729,7 @@
         <v>239.3519526830914</v>
       </c>
       <c r="L15" t="n">
-        <v>371.3200804898921</v>
+        <v>368.6286838592621</v>
       </c>
       <c r="M15" t="n">
         <v>449.7246790652133</v>
@@ -35738,7 +35738,7 @@
         <v>476.181739906105</v>
       </c>
       <c r="O15" t="n">
-        <v>413.1690247855772</v>
+        <v>415.8604214162074</v>
       </c>
       <c r="P15" t="n">
         <v>312.0762182744025</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.4913206184896</v>
+        <v>358.5879357905633</v>
       </c>
       <c r="K17" t="n">
         <v>335.2493975808979</v>
@@ -35893,10 +35893,10 @@
         <v>985.754078094663</v>
       </c>
       <c r="N17" t="n">
-        <v>839.014421137447</v>
+        <v>549.5778897395887</v>
       </c>
       <c r="O17" t="n">
-        <v>505.4808562309059</v>
+        <v>625.8207724566895</v>
       </c>
       <c r="P17" t="n">
         <v>396.5667202630248</v>
@@ -35972,7 +35972,7 @@
         <v>449.7246790652133</v>
       </c>
       <c r="N18" t="n">
-        <v>476.181739906105</v>
+        <v>478.8731365367351</v>
       </c>
       <c r="O18" t="n">
         <v>413.1690247855772</v>
@@ -35981,7 +35981,7 @@
         <v>312.0762182744025</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.8826532314771</v>
+        <v>158.1912566008469</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.37913943203311</v>
+        <v>92.37913943203313</v>
       </c>
       <c r="K19" t="n">
         <v>252.5369324325574</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.4913206184896</v>
+        <v>358.5879357905633</v>
       </c>
       <c r="K20" t="n">
         <v>335.2493975808979</v>
       </c>
       <c r="L20" t="n">
-        <v>453.1810294058926</v>
+        <v>870.8422439563431</v>
       </c>
       <c r="M20" t="n">
         <v>536.2405446018305</v>
       </c>
       <c r="N20" t="n">
-        <v>549.5778897395887</v>
+        <v>701.7701249077539</v>
       </c>
       <c r="O20" t="n">
-        <v>644.6008024172263</v>
+        <v>505.4808562309059</v>
       </c>
       <c r="P20" t="n">
-        <v>718.3654284345075</v>
+        <v>396.5667202630248</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4607421545015</v>
+        <v>249.1457514945969</v>
       </c>
       <c r="R20" t="n">
-        <v>124.3706672577563</v>
+        <v>58.6542473847739</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>368.6286838592621</v>
       </c>
       <c r="M21" t="n">
-        <v>452.4160756958433</v>
+        <v>449.7246790652133</v>
       </c>
       <c r="N21" t="n">
         <v>476.181739906105</v>
@@ -36218,7 +36218,7 @@
         <v>312.0762182744025</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.1912566008469</v>
+        <v>160.8826532314771</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.37913943203311</v>
+        <v>92.37913943203314</v>
       </c>
       <c r="K22" t="n">
         <v>252.5369324325574</v>
@@ -36291,13 +36291,13 @@
         <v>391.0939091278856</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6700878184014</v>
+        <v>348.6700878184015</v>
       </c>
       <c r="P22" t="n">
         <v>281.4137236528362</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.1056910788952</v>
+        <v>125.1056910788942</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>335.2493975808979</v>
       </c>
       <c r="L23" t="n">
-        <v>742.6175608037508</v>
+        <v>453.1810294058926</v>
       </c>
       <c r="M23" t="n">
-        <v>985.754078094663</v>
+        <v>536.2405446018305</v>
       </c>
       <c r="N23" t="n">
-        <v>549.5778897395887</v>
+        <v>901.0128265858132</v>
       </c>
       <c r="O23" t="n">
         <v>505.4808562309059</v>
       </c>
       <c r="P23" t="n">
-        <v>396.5667202630248</v>
+        <v>718.3654284345075</v>
       </c>
       <c r="Q23" t="n">
         <v>249.1457514945969</v>
       </c>
       <c r="R23" t="n">
-        <v>58.6542473847739</v>
+        <v>124.3706672577563</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>96.54320282631325</v>
+        <v>93.85180619568328</v>
       </c>
       <c r="K24" t="n">
         <v>239.3519526830914</v>
@@ -36446,7 +36446,7 @@
         <v>449.7246790652133</v>
       </c>
       <c r="N24" t="n">
-        <v>476.181739906105</v>
+        <v>478.8731365367351</v>
       </c>
       <c r="O24" t="n">
         <v>413.1690247855772</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.3791394320331</v>
+        <v>92.37913943203313</v>
       </c>
       <c r="K25" t="n">
         <v>252.5369324325574</v>
@@ -36528,10 +36528,10 @@
         <v>391.0939091278856</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6700878184014</v>
+        <v>348.6700878184015</v>
       </c>
       <c r="P25" t="n">
-        <v>281.4137236528362</v>
+        <v>281.4137236528367</v>
       </c>
       <c r="Q25" t="n">
         <v>125.1056910788942</v>
@@ -36601,22 +36601,22 @@
         <v>453.1810294058926</v>
       </c>
       <c r="M26" t="n">
-        <v>985.754078094663</v>
+        <v>536.2405446018305</v>
       </c>
       <c r="N26" t="n">
-        <v>549.5778897395887</v>
+        <v>585.9290651960498</v>
       </c>
       <c r="O26" t="n">
-        <v>516.8859770958768</v>
+        <v>886.2810374936513</v>
       </c>
       <c r="P26" t="n">
-        <v>396.5667202630248</v>
+        <v>718.3654284345075</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4607421545015</v>
+        <v>249.1457514945969</v>
       </c>
       <c r="R26" t="n">
-        <v>124.3706672577563</v>
+        <v>58.6542473847739</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>93.85180619568328</v>
       </c>
       <c r="K27" t="n">
-        <v>242.0433493137213</v>
+        <v>239.3519526830914</v>
       </c>
       <c r="L27" t="n">
         <v>368.6286838592621</v>
@@ -36695,7 +36695,7 @@
         <v>158.1912566008469</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.691396630630014</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.3791394320331</v>
+        <v>92.37913943203318</v>
       </c>
       <c r="K28" t="n">
         <v>252.5369324325574</v>
@@ -36762,16 +36762,16 @@
         <v>393.8448187736577</v>
       </c>
       <c r="N28" t="n">
-        <v>391.0939091278856</v>
+        <v>391.0939091278857</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6700878184014</v>
+        <v>348.6700878184015</v>
       </c>
       <c r="P28" t="n">
         <v>281.4137236528362</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.1056910788942</v>
+        <v>125.1056910788943</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>189.4913206184896</v>
       </c>
       <c r="K29" t="n">
-        <v>335.2493975808979</v>
+        <v>659.3948101520626</v>
       </c>
       <c r="L29" t="n">
         <v>453.1810294058926</v>
       </c>
       <c r="M29" t="n">
-        <v>536.2405446018305</v>
+        <v>951.0451969213564</v>
       </c>
       <c r="N29" t="n">
-        <v>907.7277733675339</v>
+        <v>549.5778897395887</v>
       </c>
       <c r="O29" t="n">
-        <v>886.2810374936513</v>
+        <v>505.4808562309059</v>
       </c>
       <c r="P29" t="n">
         <v>396.5667202630248</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.3791394320331</v>
+        <v>92.37913943203313</v>
       </c>
       <c r="K31" t="n">
         <v>252.5369324325574</v>
@@ -37075,13 +37075,13 @@
         <v>453.1810294058926</v>
       </c>
       <c r="M32" t="n">
-        <v>772.1272652075539</v>
+        <v>985.754078094663</v>
       </c>
       <c r="N32" t="n">
-        <v>986.9248141515729</v>
+        <v>549.5778897395887</v>
       </c>
       <c r="O32" t="n">
-        <v>505.4808562309059</v>
+        <v>794.9173876287637</v>
       </c>
       <c r="P32" t="n">
         <v>396.5667202630248</v>
@@ -37090,7 +37090,7 @@
         <v>249.1457514945969</v>
       </c>
       <c r="R32" t="n">
-        <v>124.3706672577563</v>
+        <v>58.6542473847739</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>413.1690247855772</v>
       </c>
       <c r="P33" t="n">
-        <v>312.0762182744025</v>
+        <v>314.7676149050326</v>
       </c>
       <c r="Q33" t="n">
-        <v>160.8826532314771</v>
+        <v>158.1912566008469</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,19 +37309,19 @@
         <v>335.2493975808979</v>
       </c>
       <c r="L35" t="n">
-        <v>870.3323861250999</v>
+        <v>453.1810294058926</v>
       </c>
       <c r="M35" t="n">
         <v>536.2405446018305</v>
       </c>
       <c r="N35" t="n">
-        <v>549.5778897395887</v>
+        <v>986.9248141515729</v>
       </c>
       <c r="O35" t="n">
-        <v>505.4808562309059</v>
+        <v>807.0839967096131</v>
       </c>
       <c r="P35" t="n">
-        <v>718.3654284345075</v>
+        <v>396.5667202630248</v>
       </c>
       <c r="Q35" t="n">
         <v>249.1457514945969</v>
@@ -37473,10 +37473,10 @@
         <v>393.8448187736577</v>
       </c>
       <c r="N37" t="n">
-        <v>391.0939091278857</v>
+        <v>391.0939091278856</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6700878184015</v>
+        <v>348.6700878184014</v>
       </c>
       <c r="P37" t="n">
         <v>281.4137236528362</v>
@@ -37552,16 +37552,16 @@
         <v>536.2405446018305</v>
       </c>
       <c r="N38" t="n">
-        <v>549.5778897395887</v>
+        <v>986.9248141515729</v>
       </c>
       <c r="O38" t="n">
-        <v>797.3028954166354</v>
+        <v>505.4808562309059</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5667202630248</v>
+        <v>463.3568256966748</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4607421545015</v>
+        <v>249.1457514945969</v>
       </c>
       <c r="R38" t="n">
         <v>124.3706672577563</v>
@@ -37625,7 +37625,7 @@
         <v>239.3519526830914</v>
       </c>
       <c r="L39" t="n">
-        <v>371.3200804898921</v>
+        <v>368.6286838592621</v>
       </c>
       <c r="M39" t="n">
         <v>449.7246790652133</v>
@@ -37640,7 +37640,7 @@
         <v>312.0762182744025</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.1912566008469</v>
+        <v>160.8826532314771</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>252.5369324325574</v>
       </c>
       <c r="L40" t="n">
-        <v>366.0241541425005</v>
+        <v>366.0241541425004</v>
       </c>
       <c r="M40" t="n">
         <v>393.8448187736577</v>
@@ -37719,7 +37719,7 @@
         <v>281.4137236528362</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.1056910788942</v>
+        <v>125.1056910788948</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>189.4913206184896</v>
       </c>
       <c r="K41" t="n">
-        <v>624.6859289787571</v>
+        <v>335.2493975808979</v>
       </c>
       <c r="L41" t="n">
         <v>453.1810294058926</v>
@@ -37792,7 +37792,7 @@
         <v>549.5778897395887</v>
       </c>
       <c r="O41" t="n">
-        <v>505.4808562309059</v>
+        <v>794.9173876287641</v>
       </c>
       <c r="P41" t="n">
         <v>396.5667202630248</v>
@@ -37862,7 +37862,7 @@
         <v>239.3519526830914</v>
       </c>
       <c r="L42" t="n">
-        <v>371.3200804898921</v>
+        <v>368.6286838592621</v>
       </c>
       <c r="M42" t="n">
         <v>449.7246790652133</v>
@@ -37871,7 +37871,7 @@
         <v>476.181739906105</v>
       </c>
       <c r="O42" t="n">
-        <v>413.1690247855772</v>
+        <v>415.8604214162074</v>
       </c>
       <c r="P42" t="n">
         <v>312.0762182744025</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.37913943203313</v>
+        <v>92.37913943203304</v>
       </c>
       <c r="K43" t="n">
-        <v>252.5369324325574</v>
+        <v>252.5369324325573</v>
       </c>
       <c r="L43" t="n">
-        <v>366.0241541425004</v>
+        <v>366.024154142502</v>
       </c>
       <c r="M43" t="n">
-        <v>393.8448187736577</v>
+        <v>393.8448187736576</v>
       </c>
       <c r="N43" t="n">
-        <v>391.0939091278857</v>
+        <v>391.0939091278856</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6700878184015</v>
+        <v>348.6700878184014</v>
       </c>
       <c r="P43" t="n">
-        <v>281.4137236528362</v>
+        <v>281.4137236528361</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.1056910788942</v>
+        <v>125.1056910788941</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,19 +38023,19 @@
         <v>453.1810294058926</v>
       </c>
       <c r="M44" t="n">
-        <v>536.2405446018305</v>
+        <v>953.3919013210379</v>
       </c>
       <c r="N44" t="n">
-        <v>695.41278270763</v>
+        <v>549.5778897395887</v>
       </c>
       <c r="O44" t="n">
-        <v>886.2810374936513</v>
+        <v>505.4808562309059</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5667202630248</v>
+        <v>718.3654284345075</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4607421545015</v>
+        <v>249.1457514945969</v>
       </c>
       <c r="R44" t="n">
         <v>58.6542473847739</v>
@@ -38111,13 +38111,13 @@
         <v>413.1690247855772</v>
       </c>
       <c r="P45" t="n">
-        <v>314.7676149050326</v>
+        <v>312.0762182744025</v>
       </c>
       <c r="Q45" t="n">
         <v>158.1912566008469</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>2.691396630630014</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.37913943203314</v>
+        <v>92.37913943203311</v>
       </c>
       <c r="K46" t="n">
         <v>252.5369324325574</v>
@@ -38184,10 +38184,10 @@
         <v>393.8448187736577</v>
       </c>
       <c r="N46" t="n">
-        <v>391.0939091278857</v>
+        <v>391.0939091278856</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6700878184015</v>
+        <v>348.6700878184014</v>
       </c>
       <c r="P46" t="n">
         <v>281.4137236528362</v>
